--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>965003.999264445</v>
+        <v>964217.8090780483</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2829063.870960869</v>
+        <v>2829063.870960866</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736562</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="X9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="S9" t="n">
+      <c r="Y9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="X10" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="R10" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="S10" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>8.816525072005941</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>287.1570209103971</v>
       </c>
       <c r="C11" t="n">
         <v>275.1683378680789</v>
@@ -1379,16 +1379,16 @@
         <v>287.8917794825124</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>205.9738068809558</v>
       </c>
       <c r="G11" t="n">
-        <v>308.480115561202</v>
+        <v>308.4801155612021</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.2548339466274</v>
       </c>
       <c r="I11" t="n">
-        <v>48.22101991740959</v>
+        <v>48.22101991740962</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.63520947935174</v>
       </c>
       <c r="T11" t="n">
-        <v>116.9072096322337</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>149.3490598781673</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>187.5038903387495</v>
+        <v>230.6633981505763</v>
       </c>
       <c r="W11" t="n">
         <v>255.9634976285332</v>
       </c>
       <c r="X11" t="n">
-        <v>275.2637558612798</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>286.6603536574785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.26822063319646</v>
       </c>
       <c r="I12" t="n">
-        <v>58.17914945604763</v>
+        <v>58.17914945604764</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>42.02013387979841</v>
+        <v>42.02013387979842</v>
       </c>
       <c r="S12" t="n">
         <v>146.1359137023102</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.77373178509423</v>
+        <v>78.77373178509424</v>
       </c>
       <c r="C13" t="n">
-        <v>64.97372663049471</v>
+        <v>64.97372663049472</v>
       </c>
       <c r="D13" t="n">
-        <v>48.5950910280731</v>
+        <v>48.59509102807311</v>
       </c>
       <c r="E13" t="n">
-        <v>47.54284088385255</v>
+        <v>47.54284088385256</v>
       </c>
       <c r="F13" t="n">
-        <v>48.00976521203886</v>
+        <v>48.00976521203887</v>
       </c>
       <c r="G13" t="n">
-        <v>64.05267261211858</v>
+        <v>64.0526726121186</v>
       </c>
       <c r="H13" t="n">
-        <v>52.77196442698428</v>
+        <v>52.7719644269843</v>
       </c>
       <c r="I13" t="n">
-        <v>32.84421326131708</v>
+        <v>32.84421326131641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.65811982303221</v>
+        <v>34.65811982303224</v>
       </c>
       <c r="S13" t="n">
         <v>104.5870214772624</v>
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>275.1683378680789</v>
       </c>
       <c r="D14" t="n">
         <v>266.1496419126069</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>287.8917794825124</v>
       </c>
       <c r="F14" t="n">
         <v>307.0635955704896</v>
       </c>
       <c r="G14" t="n">
-        <v>308.480115561202</v>
+        <v>308.4801155612021</v>
       </c>
       <c r="H14" t="n">
-        <v>221.2548339466273</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>48.22101991740962</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.63520947935169</v>
+        <v>70.63520947935173</v>
       </c>
       <c r="T14" t="n">
-        <v>116.9072096322337</v>
+        <v>116.9072096322338</v>
       </c>
       <c r="U14" t="n">
         <v>149.3490598781673</v>
       </c>
       <c r="V14" t="n">
-        <v>199.8313886102817</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>255.9634976285332</v>
+        <v>65.76858291744128</v>
       </c>
       <c r="X14" t="n">
         <v>275.2637558612798</v>
       </c>
       <c r="Y14" t="n">
-        <v>286.6603536574785</v>
+        <v>286.6603536574786</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>42.02013387979841</v>
+        <v>42.02013387979842</v>
       </c>
       <c r="S15" t="n">
         <v>146.1359137023102</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.77373178509421</v>
+        <v>78.77373178509424</v>
       </c>
       <c r="C16" t="n">
-        <v>64.9737266304947</v>
+        <v>64.97372663049472</v>
       </c>
       <c r="D16" t="n">
-        <v>48.59509102807309</v>
+        <v>48.59509102807311</v>
       </c>
       <c r="E16" t="n">
-        <v>47.54284088385253</v>
+        <v>47.54284088385256</v>
       </c>
       <c r="F16" t="n">
-        <v>48.00976521203884</v>
+        <v>48.00976521203887</v>
       </c>
       <c r="G16" t="n">
-        <v>64.05267261211856</v>
+        <v>64.0526726121186</v>
       </c>
       <c r="H16" t="n">
-        <v>52.77196442698425</v>
+        <v>52.7719644269843</v>
       </c>
       <c r="I16" t="n">
-        <v>32.84421326131638</v>
+        <v>32.84421326131641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65811982303219</v>
+        <v>34.65811982303224</v>
       </c>
       <c r="S16" t="n">
-        <v>104.5870214772623</v>
+        <v>104.5870214772624</v>
       </c>
       <c r="T16" t="n">
         <v>126.9106822491633</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>235.6912598516728</v>
+        <v>235.6912598516729</v>
       </c>
       <c r="C17" t="n">
         <v>223.7025768093546</v>
       </c>
       <c r="D17" t="n">
-        <v>73.32483629536841</v>
+        <v>214.6838808538826</v>
       </c>
       <c r="E17" t="n">
-        <v>236.4260184237881</v>
+        <v>236.4260184237882</v>
       </c>
       <c r="F17" t="n">
-        <v>255.5978345117652</v>
+        <v>255.5978345117653</v>
       </c>
       <c r="G17" t="n">
-        <v>257.0143545024777</v>
+        <v>257.0143545024778</v>
       </c>
       <c r="H17" t="n">
-        <v>169.789072887903</v>
+        <v>169.7890728879031</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>19.16944842062746</v>
       </c>
       <c r="T17" t="n">
-        <v>65.4414485735094</v>
+        <v>65.44144857350949</v>
       </c>
       <c r="U17" t="n">
-        <v>97.88329881944296</v>
+        <v>97.88329881944304</v>
       </c>
       <c r="V17" t="n">
-        <v>179.1976370918519</v>
+        <v>179.197637091852</v>
       </c>
       <c r="W17" t="n">
-        <v>204.4977365698088</v>
+        <v>43.96924359066556</v>
       </c>
       <c r="X17" t="n">
         <v>223.7979948025555</v>
       </c>
       <c r="Y17" t="n">
-        <v>235.1945925987542</v>
+        <v>235.1945925987543</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>42.02013387979841</v>
+        <v>42.02013387979842</v>
       </c>
       <c r="S18" t="n">
         <v>146.1359137023102</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.30797072636989</v>
+        <v>27.30797072636997</v>
       </c>
       <c r="C19" t="n">
-        <v>13.50796557177037</v>
+        <v>13.50796557177046</v>
       </c>
       <c r="D19" t="n">
-        <v>31.17472115901123</v>
+        <v>31.1747211590101</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>12.58691155339424</v>
+        <v>12.58691155339433</v>
       </c>
       <c r="H19" t="n">
-        <v>1.306203368259942</v>
+        <v>1.306203368260028</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.12126041853803</v>
+        <v>53.12126041853811</v>
       </c>
       <c r="T19" t="n">
-        <v>75.44492119043898</v>
+        <v>75.44492119043906</v>
       </c>
       <c r="U19" t="n">
-        <v>129.8938494634649</v>
+        <v>129.893849463465</v>
       </c>
       <c r="V19" t="n">
-        <v>103.7161071259955</v>
+        <v>103.7161071259956</v>
       </c>
       <c r="W19" t="n">
-        <v>128.8829931966087</v>
+        <v>128.8829931966088</v>
       </c>
       <c r="X19" t="n">
-        <v>74.52809519241185</v>
+        <v>74.52809519241194</v>
       </c>
       <c r="Y19" t="n">
-        <v>65.40296294847954</v>
+        <v>65.40296294847963</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>235.6912598516728</v>
+        <v>235.6912598516729</v>
       </c>
       <c r="C20" t="n">
         <v>223.7025768093546</v>
       </c>
       <c r="D20" t="n">
-        <v>214.6838808538825</v>
+        <v>214.6838808538826</v>
       </c>
       <c r="E20" t="n">
-        <v>236.4260184237881</v>
+        <v>236.4260184237882</v>
       </c>
       <c r="F20" t="n">
-        <v>255.5978345117652</v>
+        <v>160.5107901061311</v>
       </c>
       <c r="G20" t="n">
-        <v>257.0143545024777</v>
+        <v>257.0143545024778</v>
       </c>
       <c r="H20" t="n">
-        <v>169.789072887903</v>
+        <v>169.7890728879031</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.16944842062738</v>
+        <v>19.16944842062748</v>
       </c>
       <c r="T20" t="n">
-        <v>65.4414485735094</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>97.88329881944296</v>
+        <v>97.88329881944304</v>
       </c>
       <c r="V20" t="n">
-        <v>18.66914411271044</v>
+        <v>179.197637091852</v>
       </c>
       <c r="W20" t="n">
-        <v>204.4977365698088</v>
+        <v>204.4977365698089</v>
       </c>
       <c r="X20" t="n">
         <v>223.7979948025555</v>
       </c>
       <c r="Y20" t="n">
-        <v>235.1945925987542</v>
+        <v>235.1945925987543</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.02013387979841</v>
+        <v>42.02013387979842</v>
       </c>
       <c r="S21" t="n">
         <v>146.1359137023102</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.30797072636989</v>
+        <v>27.30797072636997</v>
       </c>
       <c r="C22" t="n">
-        <v>13.50796557177037</v>
+        <v>13.50796557177046</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>12.58691155339424</v>
+        <v>12.58691155339433</v>
       </c>
       <c r="H22" t="n">
-        <v>1.306203368259942</v>
+        <v>1.306203368260028</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>53.12126041853803</v>
+        <v>53.12126041853811</v>
       </c>
       <c r="T22" t="n">
-        <v>75.44492119043898</v>
+        <v>75.44492119043906</v>
       </c>
       <c r="U22" t="n">
-        <v>161.0685706224761</v>
+        <v>129.893849463465</v>
       </c>
       <c r="V22" t="n">
-        <v>103.7161071259955</v>
+        <v>103.7161071259956</v>
       </c>
       <c r="W22" t="n">
-        <v>128.8829931966087</v>
+        <v>160.0577143556189</v>
       </c>
       <c r="X22" t="n">
-        <v>74.52809519241185</v>
+        <v>74.52809519241194</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.40296294847954</v>
+        <v>65.40296294847963</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>235.6912598516728</v>
+        <v>235.6912598516729</v>
       </c>
       <c r="C23" t="n">
         <v>223.7025768093546</v>
       </c>
       <c r="D23" t="n">
-        <v>214.6838808538825</v>
+        <v>214.6838808538826</v>
       </c>
       <c r="E23" t="n">
-        <v>236.4260184237881</v>
+        <v>236.4260184237882</v>
       </c>
       <c r="F23" t="n">
-        <v>255.5978345117652</v>
+        <v>255.5978345117653</v>
       </c>
       <c r="G23" t="n">
-        <v>257.0143545024777</v>
+        <v>257.0143545024778</v>
       </c>
       <c r="H23" t="n">
-        <v>169.789072887903</v>
+        <v>169.7890728879031</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>19.16944842062736</v>
+        <v>19.16944842062748</v>
       </c>
       <c r="T23" t="n">
-        <v>65.4414485735094</v>
+        <v>65.44144857350949</v>
       </c>
       <c r="U23" t="n">
-        <v>97.88329881944296</v>
+        <v>97.88329881944304</v>
       </c>
       <c r="V23" t="n">
-        <v>179.1976370918519</v>
+        <v>179.197637091852</v>
       </c>
       <c r="W23" t="n">
-        <v>204.4977365698088</v>
+        <v>204.4977365698089</v>
       </c>
       <c r="X23" t="n">
         <v>223.7979948025555</v>
       </c>
       <c r="Y23" t="n">
-        <v>235.1945925987542</v>
+        <v>235.1945925987543</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>42.02013387979841</v>
+        <v>42.02013387979842</v>
       </c>
       <c r="S24" t="n">
         <v>146.1359137023102</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.30797072636989</v>
+        <v>27.30797072636997</v>
       </c>
       <c r="C25" t="n">
-        <v>44.68268673078158</v>
+        <v>13.50796557177046</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>12.58691155339424</v>
+        <v>12.58691155339433</v>
       </c>
       <c r="H25" t="n">
-        <v>1.306203368259942</v>
+        <v>1.306203368260028</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>53.12126041853803</v>
+        <v>53.12126041853811</v>
       </c>
       <c r="T25" t="n">
-        <v>75.44492119043898</v>
+        <v>75.44492119043906</v>
       </c>
       <c r="U25" t="n">
-        <v>129.8938494634649</v>
+        <v>129.893849463465</v>
       </c>
       <c r="V25" t="n">
-        <v>103.7161071259955</v>
+        <v>103.7161071259956</v>
       </c>
       <c r="W25" t="n">
-        <v>128.8829931966087</v>
+        <v>128.8829931966088</v>
       </c>
       <c r="X25" t="n">
-        <v>74.52809519241185</v>
+        <v>105.7028163514221</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.40296294847954</v>
+        <v>65.40296294847963</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>275.1683378680789</v>
       </c>
       <c r="D26" t="n">
-        <v>266.1496419126069</v>
+        <v>158.7669003477517</v>
       </c>
       <c r="E26" t="n">
         <v>287.8917794825124</v>
@@ -2570,10 +2570,10 @@
         <v>308.4801155612021</v>
       </c>
       <c r="H26" t="n">
-        <v>65.65107246435669</v>
+        <v>221.2548339466274</v>
       </c>
       <c r="I26" t="n">
-        <v>48.22101991740963</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>96.26822063319646</v>
       </c>
       <c r="I27" t="n">
-        <v>58.17914945604764</v>
+        <v>58.17914945604763</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.1570209103972</v>
+        <v>287.1570209103971</v>
       </c>
       <c r="C29" t="n">
         <v>275.1683378680789</v>
@@ -2801,7 +2801,7 @@
         <v>287.8917794825124</v>
       </c>
       <c r="F29" t="n">
-        <v>307.0635955704896</v>
+        <v>222.0950435675762</v>
       </c>
       <c r="G29" t="n">
         <v>308.4801155612021</v>
@@ -2810,7 +2810,7 @@
         <v>221.2548339466274</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>48.22101991740962</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.63520947935174</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>9.524468067371771</v>
+        <v>116.9072096322338</v>
       </c>
       <c r="U29" t="n">
         <v>149.3490598781673</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.77373178509426</v>
+        <v>78.77373178509424</v>
       </c>
       <c r="C31" t="n">
-        <v>64.97372663049474</v>
+        <v>64.97372663049472</v>
       </c>
       <c r="D31" t="n">
-        <v>48.59509102807313</v>
+        <v>48.59509102807311</v>
       </c>
       <c r="E31" t="n">
-        <v>47.54284088385258</v>
+        <v>47.54284088385256</v>
       </c>
       <c r="F31" t="n">
-        <v>48.00976521203889</v>
+        <v>48.00976521203887</v>
       </c>
       <c r="G31" t="n">
-        <v>64.0526726121186</v>
+        <v>64.05267261211858</v>
       </c>
       <c r="H31" t="n">
-        <v>52.77196442698431</v>
+        <v>52.7719644269843</v>
       </c>
       <c r="I31" t="n">
-        <v>32.84421326131643</v>
+        <v>32.84421326131641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65811982303225</v>
+        <v>34.65811982303224</v>
       </c>
       <c r="S31" t="n">
         <v>104.5870214772624</v>
@@ -3004,10 +3004,10 @@
         <v>126.9106822491633</v>
       </c>
       <c r="U31" t="n">
-        <v>181.3596105221893</v>
+        <v>181.3596105221892</v>
       </c>
       <c r="V31" t="n">
-        <v>155.1818681847199</v>
+        <v>155.1818681847198</v>
       </c>
       <c r="W31" t="n">
         <v>180.3487542553331</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.1937327168592</v>
+        <v>274.1937327168595</v>
       </c>
       <c r="C32" t="n">
-        <v>262.2050496745409</v>
+        <v>262.2050496745412</v>
       </c>
       <c r="D32" t="n">
-        <v>253.1863537190689</v>
+        <v>253.1863537190692</v>
       </c>
       <c r="E32" t="n">
-        <v>274.9284912889744</v>
+        <v>274.9284912889747</v>
       </c>
       <c r="F32" t="n">
-        <v>294.1003073769516</v>
+        <v>294.1003073769519</v>
       </c>
       <c r="G32" t="n">
-        <v>295.5168273676641</v>
+        <v>295.5168273676643</v>
       </c>
       <c r="H32" t="n">
-        <v>208.2915457530894</v>
+        <v>208.2915457530897</v>
       </c>
       <c r="I32" t="n">
-        <v>35.25773172387163</v>
+        <v>35.25773172387193</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.67192128581372</v>
+        <v>57.67192128581402</v>
       </c>
       <c r="T32" t="n">
-        <v>103.9439214386958</v>
+        <v>103.9439214386961</v>
       </c>
       <c r="U32" t="n">
-        <v>136.3857716846293</v>
+        <v>136.3857716846296</v>
       </c>
       <c r="V32" t="n">
-        <v>217.7001099570383</v>
+        <v>217.7001099570386</v>
       </c>
       <c r="W32" t="n">
-        <v>243.0002094349952</v>
+        <v>243.0002094349955</v>
       </c>
       <c r="X32" t="n">
-        <v>262.3004676677418</v>
+        <v>262.3004676677421</v>
       </c>
       <c r="Y32" t="n">
-        <v>273.6970654639406</v>
+        <v>273.6970654639409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.81044359155625</v>
+        <v>65.81044359155655</v>
       </c>
       <c r="C34" t="n">
-        <v>52.01043843695673</v>
+        <v>52.01043843695703</v>
       </c>
       <c r="D34" t="n">
-        <v>35.63180283453512</v>
+        <v>35.63180283453542</v>
       </c>
       <c r="E34" t="n">
-        <v>34.57955269031457</v>
+        <v>34.57955269031487</v>
       </c>
       <c r="F34" t="n">
-        <v>35.04647701850088</v>
+        <v>35.04647701850118</v>
       </c>
       <c r="G34" t="n">
-        <v>51.08938441858061</v>
+        <v>51.08938441858091</v>
       </c>
       <c r="H34" t="n">
-        <v>39.80867623344631</v>
+        <v>39.8086762334466</v>
       </c>
       <c r="I34" t="n">
-        <v>19.88092506777841</v>
+        <v>19.88092506777871</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.69483162949424</v>
+        <v>21.69483162949454</v>
       </c>
       <c r="S34" t="n">
-        <v>91.62373328372439</v>
+        <v>91.62373328372469</v>
       </c>
       <c r="T34" t="n">
-        <v>113.9473940556253</v>
+        <v>113.9473940556256</v>
       </c>
       <c r="U34" t="n">
-        <v>168.3963223286513</v>
+        <v>168.3963223286516</v>
       </c>
       <c r="V34" t="n">
-        <v>142.2185799911819</v>
+        <v>142.2185799911821</v>
       </c>
       <c r="W34" t="n">
-        <v>167.3854660617951</v>
+        <v>167.3854660617954</v>
       </c>
       <c r="X34" t="n">
-        <v>113.0305680575982</v>
+        <v>113.0305680575985</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.9054358136659</v>
+        <v>103.9054358136662</v>
       </c>
     </row>
     <row r="35">
@@ -3266,16 +3266,16 @@
         <v>235.6912598516728</v>
       </c>
       <c r="C35" t="n">
-        <v>223.7025768093545</v>
+        <v>223.7025768093546</v>
       </c>
       <c r="D35" t="n">
-        <v>214.6838808538825</v>
+        <v>214.6838808538826</v>
       </c>
       <c r="E35" t="n">
-        <v>236.426018423788</v>
+        <v>236.4260184237881</v>
       </c>
       <c r="F35" t="n">
-        <v>255.5978345117652</v>
+        <v>255.5978345117653</v>
       </c>
       <c r="G35" t="n">
         <v>257.0143545024777</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.16944842062735</v>
+        <v>19.16944842062739</v>
       </c>
       <c r="T35" t="n">
-        <v>65.44144857350938</v>
+        <v>65.44144857350943</v>
       </c>
       <c r="U35" t="n">
-        <v>97.88329881944293</v>
+        <v>97.88329881944298</v>
       </c>
       <c r="V35" t="n">
-        <v>179.1976370918519</v>
+        <v>179.197637091852</v>
       </c>
       <c r="W35" t="n">
-        <v>204.4977365698088</v>
+        <v>204.4977365698089</v>
       </c>
       <c r="X35" t="n">
-        <v>223.7979948025554</v>
+        <v>223.7979948025555</v>
       </c>
       <c r="Y35" t="n">
         <v>235.1945925987542</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.30797072636986</v>
+        <v>27.30797072636992</v>
       </c>
       <c r="C37" t="n">
-        <v>13.50796557177034</v>
+        <v>13.5079655717704</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>31.17472115901156</v>
+        <v>31.17472115901069</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>12.58691155339422</v>
+        <v>12.58691155339427</v>
       </c>
       <c r="H37" t="n">
-        <v>1.306203368259913</v>
+        <v>1.30620336825997</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>53.121260418538</v>
+        <v>53.12126041853806</v>
       </c>
       <c r="T37" t="n">
-        <v>75.44492119043895</v>
+        <v>75.444921190439</v>
       </c>
       <c r="U37" t="n">
         <v>129.8938494634649</v>
       </c>
       <c r="V37" t="n">
-        <v>103.7161071259954</v>
+        <v>103.7161071259955</v>
       </c>
       <c r="W37" t="n">
-        <v>128.8829931966087</v>
+        <v>128.8829931966088</v>
       </c>
       <c r="X37" t="n">
-        <v>74.52809519241183</v>
+        <v>74.52809519241188</v>
       </c>
       <c r="Y37" t="n">
-        <v>65.40296294847951</v>
+        <v>65.40296294847957</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>235.6912598516727</v>
+        <v>235.6912598516728</v>
       </c>
       <c r="C38" t="n">
-        <v>223.7025768093544</v>
+        <v>223.7025768093546</v>
       </c>
       <c r="D38" t="n">
-        <v>214.6838808538824</v>
+        <v>214.6838808538826</v>
       </c>
       <c r="E38" t="n">
-        <v>236.426018423788</v>
+        <v>236.4260184237881</v>
       </c>
       <c r="F38" t="n">
-        <v>255.5978345117651</v>
+        <v>255.5978345117653</v>
       </c>
       <c r="G38" t="n">
-        <v>257.0143545024775</v>
+        <v>257.0143545024777</v>
       </c>
       <c r="H38" t="n">
-        <v>169.7890728879029</v>
+        <v>169.789072887903</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.16944842062726</v>
+        <v>19.16944842062739</v>
       </c>
       <c r="T38" t="n">
-        <v>65.44144857350929</v>
+        <v>65.44144857350943</v>
       </c>
       <c r="U38" t="n">
-        <v>97.88329881944284</v>
+        <v>97.88329881944298</v>
       </c>
       <c r="V38" t="n">
-        <v>179.1976370918518</v>
+        <v>179.197637091852</v>
       </c>
       <c r="W38" t="n">
-        <v>204.4977365698087</v>
+        <v>204.4977365698089</v>
       </c>
       <c r="X38" t="n">
-        <v>223.7979948025553</v>
+        <v>223.7979948025555</v>
       </c>
       <c r="Y38" t="n">
-        <v>235.1945925987541</v>
+        <v>235.1945925987542</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.30797072636977</v>
+        <v>27.30797072636992</v>
       </c>
       <c r="C40" t="n">
-        <v>13.50796557177026</v>
+        <v>13.5079655717704</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>12.58691155339413</v>
+        <v>12.58691155339427</v>
       </c>
       <c r="H40" t="n">
-        <v>32.4809245272723</v>
+        <v>1.30620336825997</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>53.12126041853791</v>
+        <v>53.12126041853806</v>
       </c>
       <c r="T40" t="n">
-        <v>75.44492119043886</v>
+        <v>75.444921190439</v>
       </c>
       <c r="U40" t="n">
-        <v>129.8938494634648</v>
+        <v>129.8938494634649</v>
       </c>
       <c r="V40" t="n">
-        <v>103.7161071259954</v>
+        <v>103.7161071259955</v>
       </c>
       <c r="W40" t="n">
-        <v>128.8829931966086</v>
+        <v>128.8829931966088</v>
       </c>
       <c r="X40" t="n">
-        <v>74.52809519241174</v>
+        <v>74.52809519241188</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.40296294847943</v>
+        <v>96.57768410749027</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>235.6912598516728</v>
+        <v>235.691259851671</v>
       </c>
       <c r="C41" t="n">
-        <v>223.7025768093545</v>
+        <v>223.7025768093546</v>
       </c>
       <c r="D41" t="n">
-        <v>214.6838808538825</v>
+        <v>214.6838808538826</v>
       </c>
       <c r="E41" t="n">
-        <v>236.426018423788</v>
+        <v>236.4260184237881</v>
       </c>
       <c r="F41" t="n">
-        <v>255.5978345117652</v>
+        <v>255.5978345117653</v>
       </c>
       <c r="G41" t="n">
-        <v>257.0143545024777</v>
+        <v>257.0143545024778</v>
       </c>
       <c r="H41" t="n">
-        <v>169.789072887903</v>
+        <v>169.7890728879031</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.16944842062733</v>
+        <v>19.16944842062743</v>
       </c>
       <c r="T41" t="n">
-        <v>65.44144857350938</v>
+        <v>65.44144857350946</v>
       </c>
       <c r="U41" t="n">
-        <v>97.88329881944293</v>
+        <v>97.88329881944301</v>
       </c>
       <c r="V41" t="n">
-        <v>179.1976370918519</v>
+        <v>179.197637091852</v>
       </c>
       <c r="W41" t="n">
-        <v>204.4977365698088</v>
+        <v>204.4977365698089</v>
       </c>
       <c r="X41" t="n">
-        <v>223.7979948025554</v>
+        <v>223.7979948025555</v>
       </c>
       <c r="Y41" t="n">
-        <v>235.1945925987542</v>
+        <v>235.1945925987543</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.30797072636986</v>
+        <v>27.30797072636994</v>
       </c>
       <c r="C43" t="n">
-        <v>13.50796557177034</v>
+        <v>13.50796557177043</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>12.58691155339422</v>
+        <v>12.5869115533943</v>
       </c>
       <c r="H43" t="n">
-        <v>1.306203368259913</v>
+        <v>1.306203368259998</v>
       </c>
       <c r="I43" t="n">
-        <v>31.17472115901155</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>53.121260418538</v>
+        <v>53.12126041853809</v>
       </c>
       <c r="T43" t="n">
-        <v>75.44492119043895</v>
+        <v>75.44492119043903</v>
       </c>
       <c r="U43" t="n">
-        <v>129.8938494634649</v>
+        <v>129.893849463465</v>
       </c>
       <c r="V43" t="n">
-        <v>103.7161071259954</v>
+        <v>134.8908282850061</v>
       </c>
       <c r="W43" t="n">
-        <v>128.8829931966087</v>
+        <v>128.8829931966088</v>
       </c>
       <c r="X43" t="n">
-        <v>74.52809519241183</v>
+        <v>74.52809519241191</v>
       </c>
       <c r="Y43" t="n">
-        <v>65.40296294847951</v>
+        <v>65.4029629484796</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>235.6912598516728</v>
+        <v>235.6912598516729</v>
       </c>
       <c r="C44" t="n">
-        <v>223.7025768093545</v>
+        <v>223.7025768093546</v>
       </c>
       <c r="D44" t="n">
-        <v>214.6838808538825</v>
+        <v>214.6838808538826</v>
       </c>
       <c r="E44" t="n">
-        <v>236.426018423788</v>
+        <v>236.4260184237882</v>
       </c>
       <c r="F44" t="n">
-        <v>255.5978345117652</v>
+        <v>255.5978345117653</v>
       </c>
       <c r="G44" t="n">
-        <v>257.0143545024787</v>
+        <v>257.0143545024778</v>
       </c>
       <c r="H44" t="n">
-        <v>169.789072887903</v>
+        <v>169.7890728879031</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.16944842062733</v>
+        <v>19.16944842062746</v>
       </c>
       <c r="T44" t="n">
-        <v>65.44144857350938</v>
+        <v>65.44144857350949</v>
       </c>
       <c r="U44" t="n">
-        <v>97.88329881944293</v>
+        <v>97.88329881944304</v>
       </c>
       <c r="V44" t="n">
-        <v>179.1976370918519</v>
+        <v>179.197637091852</v>
       </c>
       <c r="W44" t="n">
-        <v>204.4977365698088</v>
+        <v>204.4977365698089</v>
       </c>
       <c r="X44" t="n">
-        <v>223.7979948025554</v>
+        <v>223.7979948025555</v>
       </c>
       <c r="Y44" t="n">
-        <v>235.1945925987542</v>
+        <v>235.1945925987543</v>
       </c>
     </row>
     <row r="45">
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.30797072636986</v>
+        <v>27.30797072636997</v>
       </c>
       <c r="C46" t="n">
-        <v>44.68268673078188</v>
+        <v>13.50796557177046</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>31.17472115901019</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>12.58691155339422</v>
+        <v>12.58691155339433</v>
       </c>
       <c r="H46" t="n">
-        <v>1.306203368259913</v>
+        <v>1.306203368260027</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>53.121260418538</v>
+        <v>53.12126041853811</v>
       </c>
       <c r="T46" t="n">
-        <v>75.44492119043895</v>
+        <v>75.44492119043906</v>
       </c>
       <c r="U46" t="n">
-        <v>129.8938494634649</v>
+        <v>129.893849463465</v>
       </c>
       <c r="V46" t="n">
-        <v>103.7161071259954</v>
+        <v>103.7161071259956</v>
       </c>
       <c r="W46" t="n">
-        <v>128.8829931966087</v>
+        <v>128.8829931966088</v>
       </c>
       <c r="X46" t="n">
-        <v>74.52809519241183</v>
+        <v>74.52809519241194</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.40296294847951</v>
+        <v>65.40296294847963</v>
       </c>
     </row>
   </sheetData>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="C8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="D8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="E8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="F8" t="n">
-        <v>10.91156095206012</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="I8" t="n">
         <v>0.8007743026345088</v>
@@ -4805,46 +4805,46 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K8" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="L8" t="n">
         <v>10.71035629773655</v>
       </c>
-      <c r="L8" t="n">
-        <v>20.21955114152135</v>
-      </c>
       <c r="M8" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N8" t="n">
-        <v>20.21955114152135</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="O8" t="n">
-        <v>20.21955114152135</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="P8" t="n">
-        <v>30.12913313662339</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="Q8" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="Y8" t="n">
         <v>29.92792848229982</v>
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="C9" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="D9" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="E9" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="F9" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="G9" t="n">
         <v>10.91156095206012</v>
@@ -4887,16 +4887,16 @@
         <v>20.6199382928386</v>
       </c>
       <c r="L9" t="n">
-        <v>30.52952028794065</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="M9" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="N9" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O9" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P9" t="n">
         <v>40.03871513172544</v>
@@ -4905,28 +4905,28 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R9" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S9" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T9" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="U9" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="V9" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="W9" t="n">
-        <v>19.81714183287421</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="X9" t="n">
-        <v>19.81714183287421</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="J10" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="K10" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="L10" t="n">
-        <v>20.6199382928386</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="M10" t="n">
-        <v>30.52952028794065</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="N10" t="n">
-        <v>40.03871513172544</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O10" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P10" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="R10" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S10" t="n">
-        <v>9.70635518344859</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T10" t="n">
-        <v>9.70635518344859</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8007743026345088</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8007743026345088</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="W10" t="n">
-        <v>0.8007743026345088</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="X10" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1248.550659742051</v>
+        <v>1680.094741386075</v>
       </c>
       <c r="C11" t="n">
-        <v>970.602843713689</v>
+        <v>1402.146925357712</v>
       </c>
       <c r="D11" t="n">
-        <v>701.7648215797427</v>
+        <v>1133.308903223766</v>
       </c>
       <c r="E11" t="n">
-        <v>410.9650443246796</v>
+        <v>842.5091259687032</v>
       </c>
       <c r="F11" t="n">
-        <v>410.9650443246796</v>
+        <v>634.4547755838994</v>
       </c>
       <c r="G11" t="n">
-        <v>99.36896800023342</v>
+        <v>322.858699259453</v>
       </c>
       <c r="H11" t="n">
         <v>99.36896800023342</v>
       </c>
       <c r="I11" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="J11" t="n">
         <v>166.0791606670264</v>
@@ -5051,10 +5051,10 @@
         <v>1382.979295973271</v>
       </c>
       <c r="N11" t="n">
-        <v>1840.120421000338</v>
+        <v>1852.593229316393</v>
       </c>
       <c r="O11" t="n">
-        <v>2231.320552251203</v>
+        <v>2243.793360567259</v>
       </c>
       <c r="P11" t="n">
         <v>2533.043353677852</v>
@@ -5066,25 +5066,25 @@
         <v>2533.043353677852</v>
       </c>
       <c r="S11" t="n">
-        <v>2533.043353677852</v>
+        <v>2461.694657234062</v>
       </c>
       <c r="T11" t="n">
-        <v>2414.955263140243</v>
+        <v>2461.694657234062</v>
       </c>
       <c r="U11" t="n">
-        <v>2264.097626899669</v>
+        <v>2461.694657234062</v>
       </c>
       <c r="V11" t="n">
-        <v>2074.699757870629</v>
+        <v>2228.701325768833</v>
       </c>
       <c r="W11" t="n">
-        <v>1816.15077036706</v>
+        <v>1970.152338265264</v>
       </c>
       <c r="X11" t="n">
-        <v>1538.106572527383</v>
+        <v>1970.152338265264</v>
       </c>
       <c r="Y11" t="n">
-        <v>1248.550659742051</v>
+        <v>1970.152338265264</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>917.3816520691811</v>
+        <v>917.3816520691815</v>
       </c>
       <c r="C12" t="n">
-        <v>755.6779793101359</v>
+        <v>755.6779793101364</v>
       </c>
       <c r="D12" t="n">
-        <v>616.8393423003481</v>
+        <v>616.8393423003486</v>
       </c>
       <c r="E12" t="n">
-        <v>469.8113323572193</v>
+        <v>469.8113323572197</v>
       </c>
       <c r="F12" t="n">
-        <v>335.1175343070936</v>
+        <v>335.117534307094</v>
       </c>
       <c r="G12" t="n">
-        <v>206.6683116081474</v>
+        <v>206.6683116081475</v>
       </c>
       <c r="H12" t="n">
-        <v>109.4276847059284</v>
+        <v>109.4276847059289</v>
       </c>
       <c r="I12" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="J12" t="n">
         <v>136.7755188469892</v>
@@ -5124,31 +5124,31 @@
         <v>410.4657938635672</v>
       </c>
       <c r="L12" t="n">
-        <v>835.7196204608376</v>
+        <v>835.7196204608375</v>
       </c>
       <c r="M12" t="n">
         <v>1390.107293071089</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.642459401338</v>
+        <v>1972.562860750596</v>
       </c>
       <c r="O12" t="n">
-        <v>1985.967280329491</v>
+        <v>2178.67898460162</v>
       </c>
       <c r="P12" t="n">
-        <v>2340.331649405723</v>
+        <v>2533.043353677852</v>
       </c>
       <c r="Q12" t="n">
         <v>2533.043353677852</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.598774001288</v>
+        <v>2490.598774001287</v>
       </c>
       <c r="S12" t="n">
         <v>2342.98673995855</v>
       </c>
       <c r="T12" t="n">
-        <v>2155.427319537998</v>
+        <v>2155.427319537999</v>
       </c>
       <c r="U12" t="n">
         <v>1936.950900641425</v>
@@ -5160,7 +5160,7 @@
         <v>1467.239409323069</v>
       </c>
       <c r="X12" t="n">
-        <v>1269.322421200863</v>
+        <v>1269.322421200864</v>
       </c>
       <c r="Y12" t="n">
         <v>1076.801094850442</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.075285310809</v>
+        <v>413.075285310808</v>
       </c>
       <c r="C13" t="n">
-        <v>347.4452584113194</v>
+        <v>347.4452584113184</v>
       </c>
       <c r="D13" t="n">
-        <v>298.3593078779122</v>
+        <v>298.3593078779112</v>
       </c>
       <c r="E13" t="n">
-        <v>250.3362362780612</v>
+        <v>250.3362362780601</v>
       </c>
       <c r="F13" t="n">
-        <v>201.8415239426684</v>
+        <v>201.8415239426673</v>
       </c>
       <c r="G13" t="n">
-        <v>137.1418546374981</v>
+        <v>137.141854637497</v>
       </c>
       <c r="H13" t="n">
-        <v>83.83684006478643</v>
+        <v>83.83684006478556</v>
       </c>
       <c r="I13" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="J13" t="n">
         <v>109.9394398374239</v>
       </c>
       <c r="K13" t="n">
-        <v>272.1213478146427</v>
+        <v>272.1213478146426</v>
       </c>
       <c r="L13" t="n">
-        <v>508.7620757513876</v>
+        <v>508.7620757513874</v>
       </c>
       <c r="M13" t="n">
-        <v>764.6438247809409</v>
+        <v>764.6438247809407</v>
       </c>
       <c r="N13" t="n">
         <v>1020.099084697013</v>
       </c>
       <c r="O13" t="n">
-        <v>1252.91493646871</v>
+        <v>1252.914936468709</v>
       </c>
       <c r="P13" t="n">
         <v>1445.554287164523</v>
@@ -5221,28 +5221,28 @@
         <v>1528.916061629126</v>
       </c>
       <c r="R13" t="n">
-        <v>1493.90785978768</v>
+        <v>1493.907859787679</v>
       </c>
       <c r="S13" t="n">
-        <v>1388.264403750041</v>
+        <v>1388.26440375004</v>
       </c>
       <c r="T13" t="n">
-        <v>1260.071795417553</v>
+        <v>1260.071795417552</v>
       </c>
       <c r="U13" t="n">
-        <v>1076.880269637564</v>
+        <v>1076.880269637563</v>
       </c>
       <c r="V13" t="n">
-        <v>920.1309078348165</v>
+        <v>920.1309078348155</v>
       </c>
       <c r="W13" t="n">
-        <v>737.9604489910457</v>
+        <v>737.9604489910447</v>
       </c>
       <c r="X13" t="n">
-        <v>610.6939275252516</v>
+        <v>610.6939275252505</v>
       </c>
       <c r="Y13" t="n">
-        <v>492.6447113563587</v>
+        <v>492.6447113563577</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1164.749944842169</v>
+        <v>1558.715907793051</v>
       </c>
       <c r="C14" t="n">
-        <v>1164.749944842169</v>
+        <v>1280.768091764689</v>
       </c>
       <c r="D14" t="n">
-        <v>895.9119227082233</v>
+        <v>1011.930069630743</v>
       </c>
       <c r="E14" t="n">
-        <v>895.9119227082233</v>
+        <v>721.1302923756796</v>
       </c>
       <c r="F14" t="n">
-        <v>585.7466746572237</v>
+        <v>410.96504432468</v>
       </c>
       <c r="G14" t="n">
-        <v>274.1505983327772</v>
+        <v>99.36896800023342</v>
       </c>
       <c r="H14" t="n">
-        <v>50.66086707355705</v>
+        <v>99.36896800023342</v>
       </c>
       <c r="I14" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="J14" t="n">
         <v>166.0791606670264</v>
       </c>
       <c r="K14" t="n">
-        <v>471.2944815346004</v>
+        <v>309.1444886263758</v>
       </c>
       <c r="L14" t="n">
-        <v>899.9110829548169</v>
+        <v>737.7610900465922</v>
       </c>
       <c r="M14" t="n">
-        <v>1382.979295973271</v>
+        <v>1220.829303065046</v>
       </c>
       <c r="N14" t="n">
-        <v>1852.593229316394</v>
+        <v>1690.443236408169</v>
       </c>
       <c r="O14" t="n">
         <v>2081.643367659035</v>
       </c>
       <c r="P14" t="n">
-        <v>2383.366169085684</v>
+        <v>2383.366169085683</v>
       </c>
       <c r="Q14" t="n">
         <v>2533.043353677852</v>
@@ -5303,25 +5303,25 @@
         <v>2533.043353677852</v>
       </c>
       <c r="S14" t="n">
-        <v>2461.694657234063</v>
+        <v>2461.694657234062</v>
       </c>
       <c r="T14" t="n">
-        <v>2343.606566696453</v>
+        <v>2343.606566696452</v>
       </c>
       <c r="U14" t="n">
-        <v>2192.74893045588</v>
+        <v>2192.748930455879</v>
       </c>
       <c r="V14" t="n">
-        <v>1990.899042970747</v>
+        <v>2192.748930455879</v>
       </c>
       <c r="W14" t="n">
-        <v>1732.350055467178</v>
+        <v>2126.31601841806</v>
       </c>
       <c r="X14" t="n">
-        <v>1454.305857627501</v>
+        <v>1848.271820578383</v>
       </c>
       <c r="Y14" t="n">
-        <v>1164.749944842169</v>
+        <v>1558.715907793051</v>
       </c>
     </row>
     <row r="15">
@@ -5346,34 +5346,34 @@
         <v>335.1175343070936</v>
       </c>
       <c r="G15" t="n">
-        <v>206.6683116081471</v>
+        <v>206.668311608147</v>
       </c>
       <c r="H15" t="n">
         <v>109.4276847059284</v>
       </c>
       <c r="I15" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="J15" t="n">
         <v>136.7755188469892</v>
       </c>
       <c r="K15" t="n">
-        <v>410.4657938635672</v>
+        <v>159.2570967864371</v>
       </c>
       <c r="L15" t="n">
-        <v>835.7196204608376</v>
+        <v>584.5109233837074</v>
       </c>
       <c r="M15" t="n">
-        <v>946.1868917218295</v>
+        <v>1138.898595993959</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.642459401337</v>
+        <v>1721.354163673466</v>
       </c>
       <c r="O15" t="n">
-        <v>1985.96728032949</v>
+        <v>2178.67898460162</v>
       </c>
       <c r="P15" t="n">
-        <v>2340.331649405722</v>
+        <v>2533.043353677851</v>
       </c>
       <c r="Q15" t="n">
         <v>2533.043353677851</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.0752853108087</v>
+        <v>413.0752853108082</v>
       </c>
       <c r="C16" t="n">
-        <v>347.4452584113191</v>
+        <v>347.4452584113186</v>
       </c>
       <c r="D16" t="n">
-        <v>298.3593078779119</v>
+        <v>298.3593078779114</v>
       </c>
       <c r="E16" t="n">
-        <v>250.3362362780608</v>
+        <v>250.3362362780604</v>
       </c>
       <c r="F16" t="n">
-        <v>201.841523942668</v>
+        <v>201.8415239426674</v>
       </c>
       <c r="G16" t="n">
-        <v>137.1418546374975</v>
+        <v>137.1418546374971</v>
       </c>
       <c r="H16" t="n">
-        <v>83.83684006478572</v>
+        <v>83.83684006478575</v>
       </c>
       <c r="I16" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="J16" t="n">
-        <v>109.9394398374239</v>
+        <v>109.9394398374238</v>
       </c>
       <c r="K16" t="n">
-        <v>272.1213478146426</v>
+        <v>272.1213478146425</v>
       </c>
       <c r="L16" t="n">
-        <v>508.7620757513876</v>
+        <v>508.7620757513874</v>
       </c>
       <c r="M16" t="n">
-        <v>764.6438247809408</v>
+        <v>764.6438247809407</v>
       </c>
       <c r="N16" t="n">
         <v>1020.099084697013</v>
       </c>
       <c r="O16" t="n">
-        <v>1252.914936468709</v>
+        <v>1252.91493646871</v>
       </c>
       <c r="P16" t="n">
         <v>1445.554287164523</v>
@@ -5470,16 +5470,16 @@
         <v>1076.880269637563</v>
       </c>
       <c r="V16" t="n">
-        <v>920.1309078348161</v>
+        <v>920.1309078348157</v>
       </c>
       <c r="W16" t="n">
-        <v>737.9604489910453</v>
+        <v>737.960448991045</v>
       </c>
       <c r="X16" t="n">
-        <v>610.6939275252512</v>
+        <v>610.6939275252507</v>
       </c>
       <c r="Y16" t="n">
-        <v>492.6447113563584</v>
+        <v>492.644711356358</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1278.796921043918</v>
+        <v>1421.583834739387</v>
       </c>
       <c r="C17" t="n">
-        <v>1052.83472224659</v>
+        <v>1195.621635942059</v>
       </c>
       <c r="D17" t="n">
-        <v>978.7692310391469</v>
+        <v>978.7692310391471</v>
       </c>
       <c r="E17" t="n">
-        <v>739.9550710151185</v>
+        <v>739.9550710151187</v>
       </c>
       <c r="F17" t="n">
-        <v>481.7754401951536</v>
+        <v>481.7754401951538</v>
       </c>
       <c r="G17" t="n">
-        <v>222.1649811017419</v>
+        <v>222.164981101742</v>
       </c>
       <c r="H17" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="I17" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="J17" t="n">
-        <v>50.66086707355705</v>
+        <v>166.0791606670264</v>
       </c>
       <c r="K17" t="n">
-        <v>355.876187941131</v>
+        <v>471.2944815346004</v>
       </c>
       <c r="L17" t="n">
-        <v>784.4927893613475</v>
+        <v>899.9110829548169</v>
       </c>
       <c r="M17" t="n">
-        <v>1267.561002379801</v>
+        <v>1382.979295973271</v>
       </c>
       <c r="N17" t="n">
-        <v>1737.174935722924</v>
+        <v>1690.443236408169</v>
       </c>
       <c r="O17" t="n">
-        <v>2128.37506697379</v>
+        <v>2081.643367659035</v>
       </c>
       <c r="P17" t="n">
-        <v>2383.366169085684</v>
+        <v>2383.366169085683</v>
       </c>
       <c r="Q17" t="n">
         <v>2533.043353677852</v>
@@ -5540,25 +5540,25 @@
         <v>2533.043353677852</v>
       </c>
       <c r="S17" t="n">
-        <v>2533.043353677852</v>
+        <v>2513.680274465097</v>
       </c>
       <c r="T17" t="n">
-        <v>2466.940880371277</v>
+        <v>2447.577801158522</v>
       </c>
       <c r="U17" t="n">
-        <v>2368.068861361739</v>
+        <v>2348.705782148983</v>
       </c>
       <c r="V17" t="n">
-        <v>2187.061147127545</v>
+        <v>2167.698067914789</v>
       </c>
       <c r="W17" t="n">
-        <v>1980.497776855011</v>
+        <v>2123.284690550481</v>
       </c>
       <c r="X17" t="n">
-        <v>1754.439196246369</v>
+        <v>1897.226109941839</v>
       </c>
       <c r="Y17" t="n">
-        <v>1516.868900692072</v>
+        <v>1659.655814387541</v>
       </c>
     </row>
     <row r="18">
@@ -5583,34 +5583,34 @@
         <v>335.1175343070936</v>
       </c>
       <c r="G18" t="n">
-        <v>206.6683116081471</v>
+        <v>206.668311608147</v>
       </c>
       <c r="H18" t="n">
         <v>109.4276847059284</v>
       </c>
       <c r="I18" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="J18" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="K18" t="n">
-        <v>50.66086707355705</v>
+        <v>324.3511420901351</v>
       </c>
       <c r="L18" t="n">
-        <v>475.9146936708274</v>
+        <v>749.6049686874054</v>
       </c>
       <c r="M18" t="n">
-        <v>1030.302366281079</v>
+        <v>1303.992641297657</v>
       </c>
       <c r="N18" t="n">
-        <v>1612.757933960586</v>
+        <v>1721.354163673466</v>
       </c>
       <c r="O18" t="n">
-        <v>2070.08275488874</v>
+        <v>2178.67898460162</v>
       </c>
       <c r="P18" t="n">
-        <v>2424.447123964972</v>
+        <v>2533.043353677851</v>
       </c>
       <c r="Q18" t="n">
         <v>2533.043353677851</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>109.8283434901589</v>
+        <v>109.828343490158</v>
       </c>
       <c r="C19" t="n">
-        <v>96.18393382170393</v>
+        <v>96.18393382170296</v>
       </c>
       <c r="D19" t="n">
-        <v>64.69431648936936</v>
+        <v>64.69431648936953</v>
       </c>
       <c r="E19" t="n">
-        <v>64.69431648936936</v>
+        <v>64.69431648936953</v>
       </c>
       <c r="F19" t="n">
-        <v>64.69431648936936</v>
+        <v>64.69431648936953</v>
       </c>
       <c r="G19" t="n">
-        <v>51.98026441523376</v>
+        <v>51.98026441523383</v>
       </c>
       <c r="H19" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="I19" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="J19" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="K19" t="n">
-        <v>110.9261526704585</v>
+        <v>110.9261526704584</v>
       </c>
       <c r="L19" t="n">
-        <v>245.650258226886</v>
+        <v>245.6502582268859</v>
       </c>
       <c r="M19" t="n">
-        <v>399.6153848761219</v>
+        <v>399.6153848761218</v>
       </c>
       <c r="N19" t="n">
-        <v>553.1540224118771</v>
+        <v>553.154022411877</v>
       </c>
       <c r="O19" t="n">
-        <v>684.053251803256</v>
+        <v>684.0532518032559</v>
       </c>
       <c r="P19" t="n">
-        <v>774.7759801187522</v>
+        <v>774.775980118752</v>
       </c>
       <c r="Q19" t="n">
-        <v>774.7759801187522</v>
+        <v>774.775980118752</v>
       </c>
       <c r="R19" t="n">
-        <v>774.7759801187522</v>
+        <v>774.775980118752</v>
       </c>
       <c r="S19" t="n">
-        <v>721.1181413121481</v>
+        <v>721.1181413121478</v>
       </c>
       <c r="T19" t="n">
-        <v>644.9111502106946</v>
+        <v>644.9111502106942</v>
       </c>
       <c r="U19" t="n">
-        <v>513.7052416617402</v>
+        <v>513.7052416617397</v>
       </c>
       <c r="V19" t="n">
-        <v>408.9414970900276</v>
+        <v>408.941497090027</v>
       </c>
       <c r="W19" t="n">
-        <v>278.7566554772915</v>
+        <v>278.7566554772908</v>
       </c>
       <c r="X19" t="n">
-        <v>203.475751242532</v>
+        <v>203.4757512425313</v>
       </c>
       <c r="Y19" t="n">
-        <v>137.4121523046739</v>
+        <v>137.4121523046731</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1421.583834739386</v>
+        <v>1325.536315137736</v>
       </c>
       <c r="C20" t="n">
-        <v>1195.621635942059</v>
+        <v>1099.574116340408</v>
       </c>
       <c r="D20" t="n">
-        <v>978.7692310391469</v>
+        <v>882.7217114374964</v>
       </c>
       <c r="E20" t="n">
-        <v>739.9550710151185</v>
+        <v>643.907551413468</v>
       </c>
       <c r="F20" t="n">
-        <v>481.7754401951536</v>
+        <v>481.7754401951537</v>
       </c>
       <c r="G20" t="n">
-        <v>222.1649811017419</v>
+        <v>222.164981101742</v>
       </c>
       <c r="H20" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="I20" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="J20" t="n">
-        <v>50.66086707355705</v>
+        <v>166.0791606670264</v>
       </c>
       <c r="K20" t="n">
-        <v>309.144488626376</v>
+        <v>471.2944815346004</v>
       </c>
       <c r="L20" t="n">
-        <v>737.7610900465925</v>
+        <v>899.9110829548169</v>
       </c>
       <c r="M20" t="n">
-        <v>1220.829303065047</v>
+        <v>1382.979295973271</v>
       </c>
       <c r="N20" t="n">
-        <v>1690.443236408169</v>
+        <v>1852.593229316393</v>
       </c>
       <c r="O20" t="n">
-        <v>2081.643367659035</v>
+        <v>2231.320552251203</v>
       </c>
       <c r="P20" t="n">
-        <v>2383.366169085684</v>
+        <v>2533.043353677852</v>
       </c>
       <c r="Q20" t="n">
         <v>2533.043353677852</v>
@@ -5777,25 +5777,25 @@
         <v>2533.043353677852</v>
       </c>
       <c r="S20" t="n">
-        <v>2513.680274465098</v>
+        <v>2513.680274465097</v>
       </c>
       <c r="T20" t="n">
-        <v>2447.577801158523</v>
+        <v>2513.680274465097</v>
       </c>
       <c r="U20" t="n">
-        <v>2348.705782148984</v>
+        <v>2414.808255455558</v>
       </c>
       <c r="V20" t="n">
-        <v>2329.848060823014</v>
+        <v>2233.800541221364</v>
       </c>
       <c r="W20" t="n">
-        <v>2123.28469055048</v>
+        <v>2027.23717094883</v>
       </c>
       <c r="X20" t="n">
-        <v>1897.226109941838</v>
+        <v>1801.178590340188</v>
       </c>
       <c r="Y20" t="n">
-        <v>1659.655814387541</v>
+        <v>1563.608294785891</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>917.3816520691815</v>
+        <v>917.3816520691813</v>
       </c>
       <c r="C21" t="n">
-        <v>755.6779793101364</v>
+        <v>755.677979310136</v>
       </c>
       <c r="D21" t="n">
-        <v>616.8393423003486</v>
+        <v>616.8393423003481</v>
       </c>
       <c r="E21" t="n">
-        <v>469.8113323572197</v>
+        <v>469.8113323572193</v>
       </c>
       <c r="F21" t="n">
-        <v>335.117534307094</v>
+        <v>335.1175343070936</v>
       </c>
       <c r="G21" t="n">
-        <v>206.6683116081474</v>
+        <v>206.668311608147</v>
       </c>
       <c r="H21" t="n">
         <v>109.4276847059284</v>
       </c>
       <c r="I21" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="J21" t="n">
         <v>136.7755188469892</v>
@@ -5841,25 +5841,25 @@
         <v>1390.107293071089</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.642459401338</v>
+        <v>1972.562860750596</v>
       </c>
       <c r="O21" t="n">
-        <v>1985.967280329491</v>
+        <v>2178.67898460162</v>
       </c>
       <c r="P21" t="n">
-        <v>2340.331649405723</v>
+        <v>2533.043353677851</v>
       </c>
       <c r="Q21" t="n">
-        <v>2533.043353677852</v>
+        <v>2533.043353677851</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.598774001288</v>
+        <v>2490.598774001287</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.986739958551</v>
+        <v>2342.98673995855</v>
       </c>
       <c r="T21" t="n">
-        <v>2155.427319537999</v>
+        <v>2155.427319537998</v>
       </c>
       <c r="U21" t="n">
         <v>1936.950900641425</v>
@@ -5871,7 +5871,7 @@
         <v>1467.239409323069</v>
       </c>
       <c r="X21" t="n">
-        <v>1269.322421200864</v>
+        <v>1269.322421200863</v>
       </c>
       <c r="Y21" t="n">
         <v>1076.801094850442</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.33872615782428</v>
+        <v>78.33872615782454</v>
       </c>
       <c r="C22" t="n">
-        <v>64.69431648936936</v>
+        <v>64.69431648936953</v>
       </c>
       <c r="D22" t="n">
-        <v>64.69431648936936</v>
+        <v>64.69431648936953</v>
       </c>
       <c r="E22" t="n">
-        <v>64.69431648936936</v>
+        <v>64.69431648936953</v>
       </c>
       <c r="F22" t="n">
-        <v>64.69431648936936</v>
+        <v>64.69431648936953</v>
       </c>
       <c r="G22" t="n">
-        <v>51.98026441523376</v>
+        <v>51.98026441523383</v>
       </c>
       <c r="H22" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="I22" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="J22" t="n">
-        <v>50.66086707355705</v>
+        <v>50.66086707355704</v>
       </c>
       <c r="K22" t="n">
-        <v>110.9261526704585</v>
+        <v>110.9261526704584</v>
       </c>
       <c r="L22" t="n">
-        <v>245.650258226886</v>
+        <v>245.6502582268859</v>
       </c>
       <c r="M22" t="n">
-        <v>399.6153848761219</v>
+        <v>399.6153848761218</v>
       </c>
       <c r="N22" t="n">
-        <v>553.1540224118771</v>
+        <v>553.154022411877</v>
       </c>
       <c r="O22" t="n">
-        <v>684.053251803256</v>
+        <v>684.0532518032559</v>
       </c>
       <c r="P22" t="n">
-        <v>774.7759801187522</v>
+        <v>774.775980118752</v>
       </c>
       <c r="Q22" t="n">
-        <v>774.7759801187522</v>
+        <v>774.775980118752</v>
       </c>
       <c r="R22" t="n">
-        <v>774.7759801187522</v>
+        <v>774.775980118752</v>
       </c>
       <c r="S22" t="n">
-        <v>721.1181413121481</v>
+        <v>721.1181413121478</v>
       </c>
       <c r="T22" t="n">
-        <v>644.9111502106946</v>
+        <v>644.9111502106942</v>
       </c>
       <c r="U22" t="n">
-        <v>482.2156243294056</v>
+        <v>513.7052416617397</v>
       </c>
       <c r="V22" t="n">
-        <v>377.451879757693</v>
+        <v>408.941497090027</v>
       </c>
       <c r="W22" t="n">
-        <v>247.2670381449569</v>
+        <v>247.2670381449574</v>
       </c>
       <c r="X22" t="n">
-        <v>171.9861339101975</v>
+        <v>171.9861339101979</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.9225349723393</v>
+        <v>105.9225349723397</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1198.930819470798</v>
       </c>
       <c r="D23" t="n">
-        <v>982.0784145678865</v>
+        <v>982.0784145678863</v>
       </c>
       <c r="E23" t="n">
-        <v>743.2642545438582</v>
+        <v>743.2642545438579</v>
       </c>
       <c r="F23" t="n">
-        <v>485.0846237238934</v>
+        <v>485.0846237238929</v>
       </c>
       <c r="G23" t="n">
-        <v>225.4741646304812</v>
+        <v>225.4741646304813</v>
       </c>
       <c r="H23" t="n">
         <v>53.97005060229632</v>
@@ -5987,19 +5987,19 @@
         <v>53.97005060229632</v>
       </c>
       <c r="J23" t="n">
-        <v>169.3883441957655</v>
+        <v>169.388344195766</v>
       </c>
       <c r="K23" t="n">
-        <v>474.6036650633396</v>
+        <v>474.6036650633399</v>
       </c>
       <c r="L23" t="n">
-        <v>903.2202664835559</v>
+        <v>903.2202664835564</v>
       </c>
       <c r="M23" t="n">
         <v>1386.28847950201</v>
       </c>
       <c r="N23" t="n">
-        <v>1855.902412845132</v>
+        <v>1855.902412845133</v>
       </c>
       <c r="O23" t="n">
         <v>2247.102544095998</v>
@@ -6069,22 +6069,22 @@
         <v>53.97005060229632</v>
       </c>
       <c r="K24" t="n">
-        <v>53.97005060229632</v>
+        <v>327.6603256188744</v>
       </c>
       <c r="L24" t="n">
-        <v>479.2238771995667</v>
+        <v>752.9141522161447</v>
       </c>
       <c r="M24" t="n">
-        <v>1033.611549809818</v>
+        <v>1142.207779522698</v>
       </c>
       <c r="N24" t="n">
-        <v>1531.951642930076</v>
+        <v>1724.663347202205</v>
       </c>
       <c r="O24" t="n">
-        <v>1989.27646385823</v>
+        <v>2181.988168130359</v>
       </c>
       <c r="P24" t="n">
-        <v>2343.640832934461</v>
+        <v>2536.352537206591</v>
       </c>
       <c r="Q24" t="n">
         <v>2536.352537206591</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>113.1375270188981</v>
+        <v>81.64790968656382</v>
       </c>
       <c r="C25" t="n">
-        <v>68.00350001810864</v>
+        <v>68.00350001810881</v>
       </c>
       <c r="D25" t="n">
-        <v>68.00350001810864</v>
+        <v>68.00350001810881</v>
       </c>
       <c r="E25" t="n">
-        <v>68.00350001810864</v>
+        <v>68.00350001810881</v>
       </c>
       <c r="F25" t="n">
-        <v>68.00350001810864</v>
+        <v>68.00350001810881</v>
       </c>
       <c r="G25" t="n">
-        <v>55.28944794397303</v>
+        <v>55.28944794397312</v>
       </c>
       <c r="H25" t="n">
         <v>53.97005060229632</v>
@@ -6172,25 +6172,25 @@
         <v>778.0851636474914</v>
       </c>
       <c r="S25" t="n">
-        <v>724.4273248408873</v>
+        <v>724.4273248408872</v>
       </c>
       <c r="T25" t="n">
-        <v>648.2203337394338</v>
+        <v>648.2203337394336</v>
       </c>
       <c r="U25" t="n">
-        <v>517.0144251904794</v>
+        <v>517.0144251904791</v>
       </c>
       <c r="V25" t="n">
-        <v>412.2506806187668</v>
+        <v>412.2506806187664</v>
       </c>
       <c r="W25" t="n">
-        <v>282.0658390060307</v>
+        <v>282.0658390060302</v>
       </c>
       <c r="X25" t="n">
-        <v>206.7849347712713</v>
+        <v>175.2953174389372</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.7213358334131</v>
+        <v>109.2317185010789</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1640.978718697811</v>
+        <v>1640.978718697817</v>
       </c>
       <c r="C26" t="n">
-        <v>1363.030902669449</v>
+        <v>1363.030902669455</v>
       </c>
       <c r="D26" t="n">
-        <v>1094.192880535502</v>
+        <v>1202.660296257584</v>
       </c>
       <c r="E26" t="n">
-        <v>803.3931032804394</v>
+        <v>911.8605190025213</v>
       </c>
       <c r="F26" t="n">
-        <v>493.2278552294399</v>
+        <v>601.6952709515217</v>
       </c>
       <c r="G26" t="n">
-        <v>181.6317789049933</v>
+        <v>290.0991946270753</v>
       </c>
       <c r="H26" t="n">
-        <v>115.317564294532</v>
+        <v>66.6094633678557</v>
       </c>
       <c r="I26" t="n">
-        <v>66.60946336785558</v>
+        <v>66.6094633678557</v>
       </c>
       <c r="J26" t="n">
-        <v>283.9443793416423</v>
+        <v>283.9443793416424</v>
       </c>
       <c r="K26" t="n">
-        <v>691.0763225895337</v>
+        <v>589.1597002092165</v>
       </c>
       <c r="L26" t="n">
-        <v>1221.609546390067</v>
+        <v>1119.69292400975</v>
       </c>
       <c r="M26" t="n">
-        <v>1806.594381788839</v>
+        <v>1667.291648823496</v>
       </c>
       <c r="N26" t="n">
-        <v>2378.124937512278</v>
+        <v>2136.905582166618</v>
       </c>
       <c r="O26" t="n">
-        <v>2769.325068763144</v>
+        <v>2630.022335797801</v>
       </c>
       <c r="P26" t="n">
-        <v>3071.047870189793</v>
+        <v>3033.661759604767</v>
       </c>
       <c r="Q26" t="n">
-        <v>3285.255566577247</v>
+        <v>3285.255566577253</v>
       </c>
       <c r="R26" t="n">
-        <v>3330.473168392779</v>
+        <v>3330.473168392785</v>
       </c>
       <c r="S26" t="n">
-        <v>3259.12447194899</v>
+        <v>3259.124471948995</v>
       </c>
       <c r="T26" t="n">
-        <v>3141.03638141138</v>
+        <v>3141.036381411385</v>
       </c>
       <c r="U26" t="n">
-        <v>2990.178745170807</v>
+        <v>2990.178745170812</v>
       </c>
       <c r="V26" t="n">
-        <v>2757.185413705578</v>
+        <v>2757.185413705583</v>
       </c>
       <c r="W26" t="n">
-        <v>2498.636426202009</v>
+        <v>2498.636426202015</v>
       </c>
       <c r="X26" t="n">
-        <v>2220.592228362333</v>
+        <v>2220.592228362339</v>
       </c>
       <c r="Y26" t="n">
-        <v>1931.036315577001</v>
+        <v>1931.036315577006</v>
       </c>
     </row>
     <row r="27">
@@ -6288,34 +6288,34 @@
         <v>632.7879385946467</v>
       </c>
       <c r="E27" t="n">
-        <v>485.7599286515178</v>
+        <v>485.759928651518</v>
       </c>
       <c r="F27" t="n">
-        <v>351.0661306013922</v>
+        <v>351.0661306013923</v>
       </c>
       <c r="G27" t="n">
-        <v>222.6169079024456</v>
+        <v>222.6169079024457</v>
       </c>
       <c r="H27" t="n">
-        <v>125.3762810002269</v>
+        <v>125.376281000227</v>
       </c>
       <c r="I27" t="n">
-        <v>66.60946336785558</v>
+        <v>66.6094633678557</v>
       </c>
       <c r="J27" t="n">
-        <v>152.7241151412877</v>
+        <v>152.7241151412879</v>
       </c>
       <c r="K27" t="n">
-        <v>426.4143901578657</v>
+        <v>426.4143901578659</v>
       </c>
       <c r="L27" t="n">
-        <v>851.668216755136</v>
+        <v>851.6682167551362</v>
       </c>
       <c r="M27" t="n">
-        <v>962.1354880161281</v>
+        <v>1406.055889365387</v>
       </c>
       <c r="N27" t="n">
-        <v>1544.591055695635</v>
+        <v>1988.511457044895</v>
       </c>
       <c r="O27" t="n">
         <v>2001.915876623789</v>
@@ -6358,55 +6358,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>429.023881605107</v>
+        <v>429.0238816051067</v>
       </c>
       <c r="C28" t="n">
-        <v>363.3938547056174</v>
+        <v>363.3938547056171</v>
       </c>
       <c r="D28" t="n">
-        <v>314.3079041722102</v>
+        <v>314.3079041722099</v>
       </c>
       <c r="E28" t="n">
-        <v>266.2848325723591</v>
+        <v>266.2848325723588</v>
       </c>
       <c r="F28" t="n">
-        <v>217.7901202369663</v>
+        <v>217.790120236966</v>
       </c>
       <c r="G28" t="n">
-        <v>153.090450931796</v>
+        <v>153.0904509317957</v>
       </c>
       <c r="H28" t="n">
-        <v>99.78543635908454</v>
+        <v>99.78543635908441</v>
       </c>
       <c r="I28" t="n">
-        <v>66.60946336785558</v>
+        <v>66.6094633678557</v>
       </c>
       <c r="J28" t="n">
-        <v>125.8880361317222</v>
+        <v>125.8880361317225</v>
       </c>
       <c r="K28" t="n">
-        <v>288.0699441089409</v>
+        <v>288.0699441089412</v>
       </c>
       <c r="L28" t="n">
-        <v>524.7106720456858</v>
+        <v>524.710672045686</v>
       </c>
       <c r="M28" t="n">
-        <v>780.5924210752391</v>
+        <v>780.5924210752394</v>
       </c>
       <c r="N28" t="n">
         <v>1036.047680991312</v>
       </c>
       <c r="O28" t="n">
-        <v>1268.863532763007</v>
+        <v>1268.863532763008</v>
       </c>
       <c r="P28" t="n">
-        <v>1461.502883458821</v>
+        <v>1461.502883458822</v>
       </c>
       <c r="Q28" t="n">
         <v>1544.864657923424</v>
       </c>
       <c r="R28" t="n">
-        <v>1509.856456081977</v>
+        <v>1509.856456081978</v>
       </c>
       <c r="S28" t="n">
         <v>1404.213000044339</v>
@@ -6418,16 +6418,16 @@
         <v>1092.828865931862</v>
       </c>
       <c r="V28" t="n">
-        <v>936.0795041291145</v>
+        <v>936.0795041291143</v>
       </c>
       <c r="W28" t="n">
-        <v>753.9090452853437</v>
+        <v>753.9090452853435</v>
       </c>
       <c r="X28" t="n">
-        <v>626.6425238195496</v>
+        <v>626.6425238195493</v>
       </c>
       <c r="Y28" t="n">
-        <v>508.5933076506568</v>
+        <v>508.5933076506565</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1749.446134419894</v>
+        <v>1712.327415141606</v>
       </c>
       <c r="C29" t="n">
-        <v>1471.498318391531</v>
+        <v>1434.379599113243</v>
       </c>
       <c r="D29" t="n">
-        <v>1202.660296257585</v>
+        <v>1165.541576979297</v>
       </c>
       <c r="E29" t="n">
-        <v>911.8605190025215</v>
+        <v>874.7417997242342</v>
       </c>
       <c r="F29" t="n">
-        <v>601.6952709515219</v>
+        <v>650.4033718781981</v>
       </c>
       <c r="G29" t="n">
-        <v>290.0991946270752</v>
+        <v>338.8072955537515</v>
       </c>
       <c r="H29" t="n">
-        <v>66.60946336785558</v>
+        <v>115.3175642945321</v>
       </c>
       <c r="I29" t="n">
-        <v>66.60946336785558</v>
+        <v>66.6094633678557</v>
       </c>
       <c r="J29" t="n">
-        <v>283.9443793416423</v>
+        <v>182.0277569613251</v>
       </c>
       <c r="K29" t="n">
-        <v>691.0763225895337</v>
+        <v>589.1597002092165</v>
       </c>
       <c r="L29" t="n">
-        <v>1221.609546390067</v>
+        <v>1025.607792859939</v>
       </c>
       <c r="M29" t="n">
-        <v>1704.677759408522</v>
+        <v>1610.59262825871</v>
       </c>
       <c r="N29" t="n">
-        <v>2174.291692751644</v>
+        <v>2182.12318398215</v>
       </c>
       <c r="O29" t="n">
-        <v>2667.408446382827</v>
+        <v>2675.239937613333</v>
       </c>
       <c r="P29" t="n">
-        <v>3033.661759604762</v>
+        <v>3078.879361420299</v>
       </c>
       <c r="Q29" t="n">
-        <v>3285.255566577247</v>
+        <v>3330.473168392785</v>
       </c>
       <c r="R29" t="n">
-        <v>3330.473168392779</v>
+        <v>3330.473168392785</v>
       </c>
       <c r="S29" t="n">
-        <v>3259.12447194899</v>
+        <v>3330.473168392785</v>
       </c>
       <c r="T29" t="n">
-        <v>3249.503797133463</v>
+        <v>3212.385077855175</v>
       </c>
       <c r="U29" t="n">
-        <v>3098.646160892889</v>
+        <v>3061.527441614602</v>
       </c>
       <c r="V29" t="n">
-        <v>2865.65282942766</v>
+        <v>2828.534110149373</v>
       </c>
       <c r="W29" t="n">
-        <v>2607.103841924091</v>
+        <v>2569.985122645804</v>
       </c>
       <c r="X29" t="n">
-        <v>2329.059644084415</v>
+        <v>2291.940924806127</v>
       </c>
       <c r="Y29" t="n">
-        <v>2039.503731299083</v>
+        <v>2002.385012020795</v>
       </c>
     </row>
     <row r="30">
@@ -6525,31 +6525,31 @@
         <v>632.7879385946467</v>
       </c>
       <c r="E30" t="n">
-        <v>485.7599286515178</v>
+        <v>485.759928651518</v>
       </c>
       <c r="F30" t="n">
-        <v>351.0661306013922</v>
+        <v>351.0661306013923</v>
       </c>
       <c r="G30" t="n">
-        <v>222.6169079024456</v>
+        <v>222.6169079024457</v>
       </c>
       <c r="H30" t="n">
-        <v>125.3762810002269</v>
+        <v>125.3762810002271</v>
       </c>
       <c r="I30" t="n">
-        <v>66.60946336785558</v>
+        <v>66.6094633678557</v>
       </c>
       <c r="J30" t="n">
-        <v>152.7241151412877</v>
+        <v>152.7241151412879</v>
       </c>
       <c r="K30" t="n">
-        <v>426.4143901578657</v>
+        <v>426.4143901578658</v>
       </c>
       <c r="L30" t="n">
-        <v>851.668216755136</v>
+        <v>851.6682167551362</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.055889365387</v>
+        <v>962.1354880161281</v>
       </c>
       <c r="N30" t="n">
         <v>1544.591055695635</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>429.0238816051067</v>
+        <v>429.0238816051069</v>
       </c>
       <c r="C31" t="n">
-        <v>363.3938547056171</v>
+        <v>363.3938547056173</v>
       </c>
       <c r="D31" t="n">
-        <v>314.3079041722099</v>
+        <v>314.3079041722101</v>
       </c>
       <c r="E31" t="n">
-        <v>266.2848325723588</v>
+        <v>266.284832572359</v>
       </c>
       <c r="F31" t="n">
-        <v>217.7901202369659</v>
+        <v>217.7901202369662</v>
       </c>
       <c r="G31" t="n">
-        <v>153.0904509317957</v>
+        <v>153.0904509317959</v>
       </c>
       <c r="H31" t="n">
-        <v>99.7854363590843</v>
+        <v>99.7854363590844</v>
       </c>
       <c r="I31" t="n">
-        <v>66.60946336785558</v>
+        <v>66.6094633678557</v>
       </c>
       <c r="J31" t="n">
-        <v>125.8880361317224</v>
+        <v>125.8880361317225</v>
       </c>
       <c r="K31" t="n">
-        <v>288.0699441089411</v>
+        <v>288.0699441089412</v>
       </c>
       <c r="L31" t="n">
-        <v>524.7106720456864</v>
+        <v>524.710672045686</v>
       </c>
       <c r="M31" t="n">
-        <v>780.5924210752394</v>
+        <v>780.5924210752391</v>
       </c>
       <c r="N31" t="n">
         <v>1036.047680991312</v>
@@ -6637,10 +6637,10 @@
         <v>1268.863532763008</v>
       </c>
       <c r="P31" t="n">
-        <v>1461.502883458822</v>
+        <v>1461.502883458821</v>
       </c>
       <c r="Q31" t="n">
-        <v>1544.864657923425</v>
+        <v>1544.864657923424</v>
       </c>
       <c r="R31" t="n">
         <v>1509.856456081978</v>
@@ -6655,16 +6655,16 @@
         <v>1092.828865931862</v>
       </c>
       <c r="V31" t="n">
-        <v>936.0795041291145</v>
+        <v>936.0795041291143</v>
       </c>
       <c r="W31" t="n">
-        <v>753.9090452853437</v>
+        <v>753.9090452853435</v>
       </c>
       <c r="X31" t="n">
-        <v>626.6425238195495</v>
+        <v>626.6425238195494</v>
       </c>
       <c r="Y31" t="n">
-        <v>508.5933076506565</v>
+        <v>508.5933076506566</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1705.693847554272</v>
+        <v>1705.693847554275</v>
       </c>
       <c r="C32" t="n">
-        <v>1440.840262024432</v>
+        <v>1440.840262024435</v>
       </c>
       <c r="D32" t="n">
-        <v>1185.096470389009</v>
+        <v>1185.096470389012</v>
       </c>
       <c r="E32" t="n">
-        <v>907.3909236324691</v>
+        <v>907.3909236324716</v>
       </c>
       <c r="F32" t="n">
-        <v>610.3199060799927</v>
+        <v>610.3199060799951</v>
       </c>
       <c r="G32" t="n">
-        <v>311.8180602540697</v>
+        <v>311.8180602540715</v>
       </c>
       <c r="H32" t="n">
-        <v>101.4225594933742</v>
+        <v>101.4225594933746</v>
       </c>
       <c r="I32" t="n">
-        <v>65.80868906522107</v>
+        <v>65.80868906522119</v>
       </c>
       <c r="J32" t="n">
-        <v>181.2269826586905</v>
+        <v>181.2269826586906</v>
       </c>
       <c r="K32" t="n">
-        <v>601.1925812181845</v>
+        <v>601.1925812181844</v>
       </c>
       <c r="L32" t="n">
-        <v>1144.559460330321</v>
+        <v>1092.850099426907</v>
       </c>
       <c r="M32" t="n">
-        <v>1627.627673348775</v>
+        <v>1575.918312445361</v>
       </c>
       <c r="N32" t="n">
-        <v>2160.282523480397</v>
+        <v>2045.532245788483</v>
       </c>
       <c r="O32" t="n">
-        <v>2666.232932423182</v>
+        <v>2551.482654731269</v>
       </c>
       <c r="P32" t="n">
-        <v>3082.706011541751</v>
+        <v>2967.955733849837</v>
       </c>
       <c r="Q32" t="n">
-        <v>3232.38319613392</v>
+        <v>3232.383196133925</v>
       </c>
       <c r="R32" t="n">
-        <v>3290.434453261054</v>
+        <v>3290.434453261059</v>
       </c>
       <c r="S32" t="n">
-        <v>3232.179987315787</v>
+        <v>3232.179987315793</v>
       </c>
       <c r="T32" t="n">
-        <v>3127.186127276701</v>
+        <v>3127.186127276706</v>
       </c>
       <c r="U32" t="n">
-        <v>2989.42272153465</v>
+        <v>2989.422721534655</v>
       </c>
       <c r="V32" t="n">
-        <v>2769.523620567945</v>
+        <v>2769.52362056795</v>
       </c>
       <c r="W32" t="n">
-        <v>2524.068863562899</v>
+        <v>2524.068863562904</v>
       </c>
       <c r="X32" t="n">
-        <v>2259.118896221746</v>
+        <v>2259.11889622175</v>
       </c>
       <c r="Y32" t="n">
-        <v>1982.657213934937</v>
+        <v>1982.657213934941</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.5294740608452</v>
+        <v>932.5294740608455</v>
       </c>
       <c r="C33" t="n">
-        <v>770.8258013018</v>
+        <v>770.8258013018002</v>
       </c>
       <c r="D33" t="n">
-        <v>631.987164292012</v>
+        <v>631.9871642920123</v>
       </c>
       <c r="E33" t="n">
-        <v>484.9591543488833</v>
+        <v>484.9591543488834</v>
       </c>
       <c r="F33" t="n">
-        <v>350.2653562987576</v>
+        <v>350.2653562987578</v>
       </c>
       <c r="G33" t="n">
-        <v>221.8161335998111</v>
+        <v>221.8161335998112</v>
       </c>
       <c r="H33" t="n">
-        <v>124.5755066975924</v>
+        <v>124.5755066975925</v>
       </c>
       <c r="I33" t="n">
-        <v>65.80868906522107</v>
+        <v>65.80868906522119</v>
       </c>
       <c r="J33" t="n">
-        <v>151.9233408386532</v>
+        <v>151.9233408386534</v>
       </c>
       <c r="K33" t="n">
-        <v>425.6136158552313</v>
+        <v>425.6136158552314</v>
       </c>
       <c r="L33" t="n">
-        <v>850.8674424525017</v>
+        <v>850.8674424525018</v>
       </c>
       <c r="M33" t="n">
         <v>1405.255115062753</v>
       </c>
       <c r="N33" t="n">
-        <v>1543.790281393001</v>
+        <v>1987.71068274226</v>
       </c>
       <c r="O33" t="n">
         <v>2001.115102321154</v>
@@ -6819,7 +6819,7 @@
         <v>1482.387231314733</v>
       </c>
       <c r="X33" t="n">
-        <v>1284.470243192527</v>
+        <v>1284.470243192528</v>
       </c>
       <c r="Y33" t="n">
         <v>1091.948916842106</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>336.5634938128096</v>
+        <v>336.5634938128118</v>
       </c>
       <c r="C34" t="n">
-        <v>284.0276974118432</v>
+        <v>284.0276974118451</v>
       </c>
       <c r="D34" t="n">
-        <v>248.0359773769592</v>
+        <v>248.0359773769609</v>
       </c>
       <c r="E34" t="n">
-        <v>213.1071362756314</v>
+        <v>213.1071362756327</v>
       </c>
       <c r="F34" t="n">
-        <v>177.7066544387618</v>
+        <v>177.7066544387628</v>
       </c>
       <c r="G34" t="n">
-        <v>126.1012156321147</v>
+        <v>126.1012156321154</v>
       </c>
       <c r="H34" t="n">
-        <v>85.89043155792655</v>
+        <v>85.89043155792696</v>
       </c>
       <c r="I34" t="n">
-        <v>65.80868906522107</v>
+        <v>65.80868906522119</v>
       </c>
       <c r="J34" t="n">
-        <v>137.9209171406906</v>
+        <v>137.9209171406904</v>
       </c>
       <c r="K34" t="n">
-        <v>312.9364804295119</v>
+        <v>312.9364804295114</v>
       </c>
       <c r="L34" t="n">
-        <v>479.7344885925068</v>
+        <v>447.660585985939</v>
       </c>
       <c r="M34" t="n">
-        <v>633.6996152417427</v>
+        <v>601.6257126351749</v>
       </c>
       <c r="N34" t="n">
-        <v>787.2382527774979</v>
+        <v>869.9146278628498</v>
       </c>
       <c r="O34" t="n">
-        <v>1032.887759860797</v>
+        <v>1032.887759860802</v>
       </c>
       <c r="P34" t="n">
-        <v>1238.360765868213</v>
+        <v>1238.360765868218</v>
       </c>
       <c r="Q34" t="n">
-        <v>1334.556195644418</v>
+        <v>1334.556195644423</v>
       </c>
       <c r="R34" t="n">
-        <v>1312.642224301495</v>
+        <v>1312.6422243015</v>
       </c>
       <c r="S34" t="n">
-        <v>1220.092998762379</v>
+        <v>1220.092998762384</v>
       </c>
       <c r="T34" t="n">
-        <v>1104.994620928414</v>
+        <v>1104.994620928418</v>
       </c>
       <c r="U34" t="n">
-        <v>934.8973256469484</v>
+        <v>934.8973256469521</v>
       </c>
       <c r="V34" t="n">
-        <v>791.2421943427242</v>
+        <v>791.2421943427278</v>
       </c>
       <c r="W34" t="n">
-        <v>622.1659659974766</v>
+        <v>622.1659659974798</v>
       </c>
       <c r="X34" t="n">
-        <v>507.9936750302057</v>
+        <v>507.9936750302086</v>
       </c>
       <c r="Y34" t="n">
-        <v>403.0386893598361</v>
+        <v>403.0386893598387</v>
       </c>
     </row>
     <row r="35">
@@ -6920,19 +6920,19 @@
         <v>982.0784145678865</v>
       </c>
       <c r="E35" t="n">
-        <v>743.2642545438582</v>
+        <v>743.2642545438581</v>
       </c>
       <c r="F35" t="n">
-        <v>485.0846237238934</v>
+        <v>485.0846237238932</v>
       </c>
       <c r="G35" t="n">
-        <v>225.4741646304812</v>
+        <v>225.4741646304813</v>
       </c>
       <c r="H35" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="I35" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="J35" t="n">
         <v>169.3883441957657</v>
@@ -6941,43 +6941,43 @@
         <v>474.6036650633397</v>
       </c>
       <c r="L35" t="n">
-        <v>903.2202664835555</v>
+        <v>903.2202664835562</v>
       </c>
       <c r="M35" t="n">
         <v>1386.28847950201</v>
       </c>
       <c r="N35" t="n">
-        <v>1855.902412845132</v>
+        <v>1855.902412845133</v>
       </c>
       <c r="O35" t="n">
-        <v>2247.102544095998</v>
+        <v>2247.102544095999</v>
       </c>
       <c r="P35" t="n">
-        <v>2548.825345522647</v>
+        <v>2548.825345522648</v>
       </c>
       <c r="Q35" t="n">
-        <v>2698.502530114815</v>
+        <v>2698.502530114816</v>
       </c>
       <c r="R35" t="n">
-        <v>2698.502530114815</v>
+        <v>2698.502530114816</v>
       </c>
       <c r="S35" t="n">
-        <v>2679.13945090206</v>
+        <v>2679.139450902061</v>
       </c>
       <c r="T35" t="n">
-        <v>2613.036977595485</v>
+        <v>2613.036977595486</v>
       </c>
       <c r="U35" t="n">
-        <v>2514.164958585947</v>
+        <v>2514.164958585948</v>
       </c>
       <c r="V35" t="n">
-        <v>2333.157244351753</v>
+        <v>2333.157244351754</v>
       </c>
       <c r="W35" t="n">
-        <v>2126.593874079219</v>
+        <v>2126.59387407922</v>
       </c>
       <c r="X35" t="n">
-        <v>1900.535293470577</v>
+        <v>1900.535293470578</v>
       </c>
       <c r="Y35" t="n">
         <v>1662.96499791628</v>
@@ -7011,7 +7011,7 @@
         <v>112.7368682346677</v>
       </c>
       <c r="I36" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="J36" t="n">
         <v>140.0847023757285</v>
@@ -7020,19 +7020,19 @@
         <v>413.7749773923065</v>
       </c>
       <c r="L36" t="n">
-        <v>413.7749773923065</v>
+        <v>839.028803989577</v>
       </c>
       <c r="M36" t="n">
-        <v>968.1626500025578</v>
+        <v>1393.416476599828</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.618217682065</v>
+        <v>1531.951642930076</v>
       </c>
       <c r="O36" t="n">
-        <v>2007.943038610219</v>
+        <v>1989.27646385823</v>
       </c>
       <c r="P36" t="n">
-        <v>2362.30740768645</v>
+        <v>2343.640832934461</v>
       </c>
       <c r="Q36" t="n">
         <v>2536.352537206591</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>113.1375270188984</v>
+        <v>113.1375270188977</v>
       </c>
       <c r="C37" t="n">
-        <v>99.49311735044347</v>
+        <v>99.49311735044273</v>
       </c>
       <c r="D37" t="n">
-        <v>99.49311735044347</v>
+        <v>99.49311735044273</v>
       </c>
       <c r="E37" t="n">
-        <v>68.00350001810855</v>
+        <v>68.0035000181087</v>
       </c>
       <c r="F37" t="n">
-        <v>68.00350001810855</v>
+        <v>68.0035000181087</v>
       </c>
       <c r="G37" t="n">
-        <v>55.28944794397299</v>
+        <v>55.28944794397307</v>
       </c>
       <c r="H37" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="I37" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="J37" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="K37" t="n">
         <v>114.2353361991977</v>
@@ -7120,25 +7120,25 @@
         <v>778.0851636474914</v>
       </c>
       <c r="S37" t="n">
-        <v>724.4273248408874</v>
+        <v>724.4273248408873</v>
       </c>
       <c r="T37" t="n">
-        <v>648.220333739434</v>
+        <v>648.2203337394337</v>
       </c>
       <c r="U37" t="n">
-        <v>517.0144251904795</v>
+        <v>517.0144251904792</v>
       </c>
       <c r="V37" t="n">
-        <v>412.250680618767</v>
+        <v>412.2506806187665</v>
       </c>
       <c r="W37" t="n">
-        <v>282.0658390060309</v>
+        <v>282.0658390060304</v>
       </c>
       <c r="X37" t="n">
-        <v>206.7849347712715</v>
+        <v>206.7849347712709</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.7213358334134</v>
+        <v>140.7213358334128</v>
       </c>
     </row>
     <row r="38">
@@ -7157,64 +7157,64 @@
         <v>982.0784145678865</v>
       </c>
       <c r="E38" t="n">
-        <v>743.2642545438582</v>
+        <v>743.2642545438581</v>
       </c>
       <c r="F38" t="n">
-        <v>485.0846237238934</v>
+        <v>485.0846237238932</v>
       </c>
       <c r="G38" t="n">
-        <v>225.4741646304811</v>
+        <v>225.4741646304813</v>
       </c>
       <c r="H38" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="I38" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="J38" t="n">
-        <v>169.3883441957649</v>
+        <v>169.388344195766</v>
       </c>
       <c r="K38" t="n">
-        <v>474.603665063339</v>
+        <v>474.6036650633398</v>
       </c>
       <c r="L38" t="n">
-        <v>903.2202664835554</v>
+        <v>903.2202664835563</v>
       </c>
       <c r="M38" t="n">
         <v>1386.28847950201</v>
       </c>
       <c r="N38" t="n">
-        <v>1855.902412845132</v>
+        <v>1855.902412845133</v>
       </c>
       <c r="O38" t="n">
-        <v>2247.102544095998</v>
+        <v>2247.102544095999</v>
       </c>
       <c r="P38" t="n">
-        <v>2548.825345522647</v>
+        <v>2548.825345522648</v>
       </c>
       <c r="Q38" t="n">
-        <v>2698.502530114815</v>
+        <v>2698.502530114816</v>
       </c>
       <c r="R38" t="n">
-        <v>2698.502530114815</v>
+        <v>2698.502530114816</v>
       </c>
       <c r="S38" t="n">
-        <v>2679.13945090206</v>
+        <v>2679.139450902061</v>
       </c>
       <c r="T38" t="n">
-        <v>2613.036977595485</v>
+        <v>2613.036977595486</v>
       </c>
       <c r="U38" t="n">
-        <v>2514.164958585947</v>
+        <v>2514.164958585948</v>
       </c>
       <c r="V38" t="n">
-        <v>2333.157244351753</v>
+        <v>2333.157244351754</v>
       </c>
       <c r="W38" t="n">
-        <v>2126.593874079219</v>
+        <v>2126.59387407922</v>
       </c>
       <c r="X38" t="n">
-        <v>1900.535293470577</v>
+        <v>1900.535293470578</v>
       </c>
       <c r="Y38" t="n">
         <v>1662.96499791628</v>
@@ -7248,28 +7248,28 @@
         <v>112.7368682346677</v>
       </c>
       <c r="I39" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="J39" t="n">
-        <v>53.9700506022963</v>
+        <v>140.0847023757285</v>
       </c>
       <c r="K39" t="n">
-        <v>162.5662803151761</v>
+        <v>413.7749773923065</v>
       </c>
       <c r="L39" t="n">
-        <v>587.8201069124465</v>
+        <v>839.028803989577</v>
       </c>
       <c r="M39" t="n">
-        <v>1142.207779522698</v>
+        <v>1393.416476599828</v>
       </c>
       <c r="N39" t="n">
-        <v>1724.663347202205</v>
+        <v>1886.316012006308</v>
       </c>
       <c r="O39" t="n">
-        <v>2181.988168130359</v>
+        <v>2343.640832934461</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.352537206591</v>
+        <v>2343.640832934461</v>
       </c>
       <c r="Q39" t="n">
         <v>2536.352537206591</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>113.137527018899</v>
+        <v>81.64790968656365</v>
       </c>
       <c r="C40" t="n">
-        <v>99.49311735044421</v>
+        <v>68.0035000181087</v>
       </c>
       <c r="D40" t="n">
-        <v>99.49311735044421</v>
+        <v>68.0035000181087</v>
       </c>
       <c r="E40" t="n">
-        <v>99.49311735044421</v>
+        <v>68.0035000181087</v>
       </c>
       <c r="F40" t="n">
-        <v>99.49311735044421</v>
+        <v>68.0035000181087</v>
       </c>
       <c r="G40" t="n">
-        <v>86.77906527630873</v>
+        <v>55.28944794397307</v>
       </c>
       <c r="H40" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="I40" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="J40" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="K40" t="n">
         <v>114.2353361991977</v>
@@ -7357,25 +7357,25 @@
         <v>778.0851636474914</v>
       </c>
       <c r="S40" t="n">
-        <v>724.4273248408874</v>
+        <v>724.4273248408873</v>
       </c>
       <c r="T40" t="n">
-        <v>648.2203337394341</v>
+        <v>648.2203337394337</v>
       </c>
       <c r="U40" t="n">
-        <v>517.0144251904798</v>
+        <v>517.0144251904792</v>
       </c>
       <c r="V40" t="n">
-        <v>412.2506806187673</v>
+        <v>412.2506806187665</v>
       </c>
       <c r="W40" t="n">
-        <v>282.0658390060313</v>
+        <v>282.0658390060304</v>
       </c>
       <c r="X40" t="n">
-        <v>206.784934771272</v>
+        <v>206.7849347712709</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.7213358334139</v>
+        <v>109.2317185010787</v>
       </c>
     </row>
     <row r="41">
@@ -7391,31 +7391,31 @@
         <v>1198.930819470798</v>
       </c>
       <c r="D41" t="n">
-        <v>982.0784145678869</v>
+        <v>982.0784145678864</v>
       </c>
       <c r="E41" t="n">
-        <v>743.2642545438586</v>
+        <v>743.264254543858</v>
       </c>
       <c r="F41" t="n">
-        <v>485.0846237238937</v>
+        <v>485.0846237238931</v>
       </c>
       <c r="G41" t="n">
-        <v>225.4741646304812</v>
+        <v>225.4741646304813</v>
       </c>
       <c r="H41" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="I41" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="J41" t="n">
-        <v>169.388344195766</v>
+        <v>169.3883441957657</v>
       </c>
       <c r="K41" t="n">
-        <v>474.6036650633398</v>
+        <v>474.6036650633397</v>
       </c>
       <c r="L41" t="n">
-        <v>903.2202664835563</v>
+        <v>903.2202664835561</v>
       </c>
       <c r="M41" t="n">
         <v>1386.28847950201</v>
@@ -7442,19 +7442,19 @@
         <v>2613.036977595486</v>
       </c>
       <c r="U41" t="n">
-        <v>2514.164958585948</v>
+        <v>2514.164958585947</v>
       </c>
       <c r="V41" t="n">
-        <v>2333.157244351754</v>
+        <v>2333.157244351753</v>
       </c>
       <c r="W41" t="n">
-        <v>2126.59387407922</v>
+        <v>2126.593874079219</v>
       </c>
       <c r="X41" t="n">
-        <v>1900.535293470578</v>
+        <v>1900.535293470577</v>
       </c>
       <c r="Y41" t="n">
-        <v>1662.964997916281</v>
+        <v>1662.96499791628</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>112.7368682346677</v>
       </c>
       <c r="I42" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="J42" t="n">
         <v>140.0847023757285</v>
       </c>
       <c r="K42" t="n">
-        <v>140.0847023757285</v>
+        <v>413.7749773923065</v>
       </c>
       <c r="L42" t="n">
-        <v>565.3385289729989</v>
+        <v>839.0288039895769</v>
       </c>
       <c r="M42" t="n">
-        <v>1119.72620158325</v>
+        <v>1393.416476599828</v>
       </c>
       <c r="N42" t="n">
-        <v>1531.951642930076</v>
+        <v>1975.872044279336</v>
       </c>
       <c r="O42" t="n">
-        <v>1989.27646385823</v>
+        <v>2343.640832934461</v>
       </c>
       <c r="P42" t="n">
         <v>2343.640832934461</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>113.1375270188984</v>
+        <v>81.64790968656374</v>
       </c>
       <c r="C43" t="n">
-        <v>99.49311735044347</v>
+        <v>68.00350001810875</v>
       </c>
       <c r="D43" t="n">
-        <v>99.49311735044347</v>
+        <v>68.00350001810875</v>
       </c>
       <c r="E43" t="n">
-        <v>99.49311735044347</v>
+        <v>68.00350001810875</v>
       </c>
       <c r="F43" t="n">
-        <v>99.49311735044347</v>
+        <v>68.00350001810875</v>
       </c>
       <c r="G43" t="n">
-        <v>86.7790652763079</v>
+        <v>55.28944794397309</v>
       </c>
       <c r="H43" t="n">
-        <v>85.45966793463123</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="I43" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="J43" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="K43" t="n">
         <v>114.2353361991977</v>
@@ -7594,25 +7594,25 @@
         <v>778.0851636474914</v>
       </c>
       <c r="S43" t="n">
-        <v>724.4273248408874</v>
+        <v>724.4273248408873</v>
       </c>
       <c r="T43" t="n">
-        <v>648.220333739434</v>
+        <v>648.2203337394337</v>
       </c>
       <c r="U43" t="n">
-        <v>517.0144251904795</v>
+        <v>517.0144251904792</v>
       </c>
       <c r="V43" t="n">
-        <v>412.250680618767</v>
+        <v>380.7610632864327</v>
       </c>
       <c r="W43" t="n">
-        <v>282.0658390060309</v>
+        <v>250.5762216736965</v>
       </c>
       <c r="X43" t="n">
-        <v>206.7849347712715</v>
+        <v>175.295317438937</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.7213358334134</v>
+        <v>109.2317185010788</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1424.893018268126</v>
+        <v>1424.893018268125</v>
       </c>
       <c r="C44" t="n">
-        <v>1198.930819470798</v>
+        <v>1198.930819470797</v>
       </c>
       <c r="D44" t="n">
-        <v>982.0784145678863</v>
+        <v>982.0784145678856</v>
       </c>
       <c r="E44" t="n">
-        <v>743.2642545438582</v>
+        <v>743.2642545438569</v>
       </c>
       <c r="F44" t="n">
-        <v>485.0846237238939</v>
+        <v>485.084623723892</v>
       </c>
       <c r="G44" t="n">
-        <v>225.4741646304812</v>
+        <v>225.4741646304813</v>
       </c>
       <c r="H44" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="I44" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="J44" t="n">
         <v>169.3883441957657</v>
@@ -7652,7 +7652,7 @@
         <v>474.6036650633397</v>
       </c>
       <c r="L44" t="n">
-        <v>903.2202664835563</v>
+        <v>903.2202664835561</v>
       </c>
       <c r="M44" t="n">
         <v>1386.28847950201</v>
@@ -7661,10 +7661,10 @@
         <v>1855.902412845133</v>
       </c>
       <c r="O44" t="n">
-        <v>2247.102544095999</v>
+        <v>2247.102544095998</v>
       </c>
       <c r="P44" t="n">
-        <v>2548.825345522648</v>
+        <v>2548.825345522647</v>
       </c>
       <c r="Q44" t="n">
         <v>2698.502530114816</v>
@@ -7676,10 +7676,10 @@
         <v>2679.139450902061</v>
       </c>
       <c r="T44" t="n">
-        <v>2613.036977595486</v>
+        <v>2613.036977595485</v>
       </c>
       <c r="U44" t="n">
-        <v>2514.164958585948</v>
+        <v>2514.164958585947</v>
       </c>
       <c r="V44" t="n">
         <v>2333.157244351753</v>
@@ -7722,28 +7722,28 @@
         <v>112.7368682346677</v>
       </c>
       <c r="I45" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="J45" t="n">
-        <v>53.97005060229633</v>
+        <v>140.0847023757285</v>
       </c>
       <c r="K45" t="n">
-        <v>327.6603256188744</v>
+        <v>413.7749773923065</v>
       </c>
       <c r="L45" t="n">
-        <v>752.9141522161448</v>
+        <v>839.0288039895769</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.301824826396</v>
+        <v>949.4960752505687</v>
       </c>
       <c r="N45" t="n">
-        <v>1889.757392505903</v>
+        <v>1531.951642930076</v>
       </c>
       <c r="O45" t="n">
-        <v>2181.988168130359</v>
+        <v>1989.27646385823</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.352537206591</v>
+        <v>2343.640832934461</v>
       </c>
       <c r="Q45" t="n">
         <v>2536.352537206591</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>113.1375270188984</v>
+        <v>113.1375270188973</v>
       </c>
       <c r="C46" t="n">
-        <v>68.00350001810858</v>
+        <v>99.49311735044233</v>
       </c>
       <c r="D46" t="n">
-        <v>68.00350001810858</v>
+        <v>68.00350001810881</v>
       </c>
       <c r="E46" t="n">
-        <v>68.00350001810858</v>
+        <v>68.00350001810881</v>
       </c>
       <c r="F46" t="n">
-        <v>68.00350001810858</v>
+        <v>68.00350001810881</v>
       </c>
       <c r="G46" t="n">
-        <v>55.289447943973</v>
+        <v>55.28944794397312</v>
       </c>
       <c r="H46" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="I46" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="J46" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="K46" t="n">
         <v>114.2353361991977</v>
@@ -7831,25 +7831,25 @@
         <v>778.0851636474914</v>
       </c>
       <c r="S46" t="n">
-        <v>724.4273248408874</v>
+        <v>724.4273248408872</v>
       </c>
       <c r="T46" t="n">
-        <v>648.220333739434</v>
+        <v>648.2203337394336</v>
       </c>
       <c r="U46" t="n">
-        <v>517.0144251904795</v>
+        <v>517.0144251904791</v>
       </c>
       <c r="V46" t="n">
-        <v>412.250680618767</v>
+        <v>412.2506806187664</v>
       </c>
       <c r="W46" t="n">
-        <v>282.0658390060309</v>
+        <v>282.0658390060302</v>
       </c>
       <c r="X46" t="n">
-        <v>206.7849347712715</v>
+        <v>206.7849347712707</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.7213358334134</v>
+        <v>140.7213358334125</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>188.8326827569781</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>201.165459480069</v>
+        <v>201.569890946046</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>197.1659932800904</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>196.4077929551615</v>
       </c>
       <c r="O8" t="n">
         <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>197.8864878340879</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>190.6330518059216</v>
+        <v>190.2286203399446</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8535,10 +8535,10 @@
         <v>122.005847949598</v>
       </c>
       <c r="L9" t="n">
-        <v>122.5851123540791</v>
+        <v>122.1806808881021</v>
       </c>
       <c r="M9" t="n">
-        <v>125.0891498785942</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
         <v>106.7151410677083</v>
@@ -8547,7 +8547,7 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>118.8638848070747</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8611,22 +8611,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>114.8329510464913</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
-        <v>119.6034782614375</v>
+        <v>119.1990467954604</v>
       </c>
       <c r="M10" t="n">
-        <v>122.8868782403605</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N10" t="n">
-        <v>113.3497521949563</v>
+        <v>113.7541836609333</v>
       </c>
       <c r="O10" t="n">
-        <v>112.4959374921223</v>
+        <v>122.5056162750536</v>
       </c>
       <c r="P10" t="n">
-        <v>111.9040032899324</v>
+        <v>121.9136820728638</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8699,16 +8699,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
-        <v>555.9522054567351</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>405.7395243440832</v>
       </c>
       <c r="Q11" t="n">
-        <v>124.8204125122515</v>
+        <v>124.8204125122516</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8778,16 +8778,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>174.7406408392877</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>258.2748563959809</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>78.44218691303905</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8927,7 +8927,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425141</v>
+        <v>257.6011647180449</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -8939,7 +8939,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
-        <v>331.2523640170997</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
         <v>418.3383206229274</v>
@@ -9006,13 +9006,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>90.05864945258439</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>157.0121370676673</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>78.44218691303905</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>103.2414647807975</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9173,13 +9173,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>568.5510017355793</v>
+        <v>404.7631301111099</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>371.1345839413565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9240,10 +9240,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>76.9338492016909</v>
+        <v>76.93384920169092</v>
       </c>
       <c r="K18" t="n">
-        <v>67.34998486728347</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>456.3834247236923</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.1353482391804</v>
+        <v>78.44218691303905</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>103.2414647807975</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>374.1852996609434</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9413,13 +9413,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
-        <v>495.0402356415689</v>
+        <v>482.4414393627242</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>124.8204125122515</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9489,16 +9489,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>174.7406408392877</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>258.2748563959805</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>78.44218691303905</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,19 +9714,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>76.9338492016909</v>
+        <v>76.93384920169092</v>
       </c>
       <c r="K24" t="n">
-        <v>67.34998486728347</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>438.6549209520726</v>
       </c>
       <c r="N24" t="n">
-        <v>538.1799608291958</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>78.44218691303905</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9960,13 +9960,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>157.0121370676675</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>63.61656925241576</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>157.0121370676673</v>
       </c>
       <c r="N30" t="n">
-        <v>174.7406408392871</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10437,10 +10437,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>174.7406408392866</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>63.61656925241529</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10668,13 +10668,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>52.54312909927432</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>174.7406408392864</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>254.2453480444937</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236951</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>76.9338492016909</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>177.0431461934247</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,16 +10911,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>532.6844479869951</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>56.05779208420944</v>
       </c>
       <c r="Q39" t="n">
-        <v>78.44218691303904</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11139,7 +11139,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>67.34998486728347</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,13 +11148,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>451.1954640883553</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>421.5603764001241</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>56.05779208420944</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11306,7 +11306,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355792</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>76.9338492016909</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11382,19 +11382,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>157.0121370676671</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>345.2593531368207</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>78.44218691303904</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>287.1570209103971</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>307.0635955704896</v>
+        <v>101.0897886895338</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.2548339466273</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.63520947935172</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>116.9072096322338</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>149.3490598781673</v>
       </c>
       <c r="V11" t="n">
-        <v>43.15950781182674</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>275.2637558612798</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>286.6603536574786</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-6.892264536872972e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>287.1570209103971</v>
       </c>
       <c r="C14" t="n">
-        <v>275.1683378680789</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>287.8917794825124</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>221.2548339466274</v>
       </c>
       <c r="I14" t="n">
-        <v>48.22101991740959</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>30.83200954029457</v>
+        <v>230.6633981505763</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>190.1949147110919</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>141.3590445585141</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.16944842062738</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>160.5284929791434</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>95.0870444056342</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>65.44144857350949</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>160.5284929791415</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>107.3827415648552</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24458,10 +24458,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>155.6037614822707</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>48.22101991740962</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>84.96855200291338</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>48.22101991740963</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,10 +24728,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.63520947935174</v>
       </c>
       <c r="T29" t="n">
-        <v>107.382741564862</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934010.3310013865</v>
+        <v>934010.3310013862</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>934010.3310013865</v>
+        <v>934010.3310013863</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>938659.1322988201</v>
+        <v>938659.1322988204</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>938659.1322988198</v>
+        <v>938659.1322988204</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>951664.4946835082</v>
+        <v>951664.4946835079</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>536113.642055113</v>
       </c>
       <c r="C2" t="n">
-        <v>536113.6420551129</v>
+        <v>536113.642055113</v>
       </c>
       <c r="D2" t="n">
         <v>537229.1206586828</v>
       </c>
       <c r="E2" t="n">
-        <v>485557.9086006416</v>
+        <v>485557.9086006415</v>
       </c>
       <c r="F2" t="n">
-        <v>485557.9086006418</v>
+        <v>485557.9086006415</v>
       </c>
       <c r="G2" t="n">
-        <v>528392.1947171293</v>
+        <v>528392.1947171296</v>
       </c>
       <c r="H2" t="n">
-        <v>528392.1947171295</v>
+        <v>528392.1947171297</v>
       </c>
       <c r="I2" t="n">
+        <v>537336.842345928</v>
+      </c>
+      <c r="J2" t="n">
+        <v>528666.6007561359</v>
+      </c>
+      <c r="K2" t="n">
+        <v>528666.6007561359</v>
+      </c>
+      <c r="L2" t="n">
+        <v>537336.8423459282</v>
+      </c>
+      <c r="M2" t="n">
         <v>537336.8423459276</v>
       </c>
-      <c r="J2" t="n">
-        <v>528666.6007561354</v>
-      </c>
-      <c r="K2" t="n">
-        <v>528666.6007561354</v>
-      </c>
-      <c r="L2" t="n">
-        <v>537336.8423459274</v>
-      </c>
-      <c r="M2" t="n">
-        <v>537336.8423459277</v>
-      </c>
       <c r="N2" t="n">
+        <v>537336.842345928</v>
+      </c>
+      <c r="O2" t="n">
         <v>537336.8423459271</v>
       </c>
-      <c r="O2" t="n">
-        <v>537336.8423459277</v>
-      </c>
       <c r="P2" t="n">
-        <v>537336.8423459277</v>
+        <v>537336.8423459275</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>3109.306520341968</v>
       </c>
       <c r="E3" t="n">
-        <v>371716.2099124422</v>
+        <v>371716.209912442</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41172.60884697946</v>
+        <v>41172.60884697941</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10999.76741432343</v>
+        <v>10999.76741432347</v>
       </c>
       <c r="J3" t="n">
-        <v>82522.08914337383</v>
+        <v>82522.08914337424</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>51543.23940180986</v>
+        <v>51543.23940180957</v>
       </c>
       <c r="M3" t="n">
-        <v>149240.7095342776</v>
+        <v>149240.7095342774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41184.25772297387</v>
+        <v>41184.25772297398</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>392532.9083931244</v>
       </c>
       <c r="D4" t="n">
-        <v>392094.6976652483</v>
+        <v>392094.6976652482</v>
       </c>
       <c r="E4" t="n">
         <v>248538.7642586466</v>
@@ -26433,16 +26433,16 @@
         <v>283229.973127884</v>
       </c>
       <c r="H4" t="n">
-        <v>283229.973127884</v>
+        <v>283229.9731278839</v>
       </c>
       <c r="I4" t="n">
-        <v>287486.721638681</v>
+        <v>287486.7216386809</v>
       </c>
       <c r="J4" t="n">
-        <v>281292.5434672926</v>
+        <v>281292.5434672928</v>
       </c>
       <c r="K4" t="n">
-        <v>281292.5434672926</v>
+        <v>281292.5434672929</v>
       </c>
       <c r="L4" t="n">
         <v>288256.2251830106</v>
@@ -26454,10 +26454,10 @@
         <v>287486.721638681</v>
       </c>
       <c r="O4" t="n">
-        <v>287486.721638681</v>
+        <v>287486.7216386809</v>
       </c>
       <c r="P4" t="n">
-        <v>287486.721638681</v>
+        <v>287486.7216386809</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>34236.18847000223</v>
       </c>
       <c r="E5" t="n">
-        <v>49959.02795660224</v>
+        <v>49959.02795660222</v>
       </c>
       <c r="F5" t="n">
-        <v>49959.02795660224</v>
+        <v>49959.02795660222</v>
       </c>
       <c r="G5" t="n">
-        <v>54285.70302304813</v>
+        <v>54285.70302304812</v>
       </c>
       <c r="H5" t="n">
-        <v>54285.70302304813</v>
+        <v>54285.70302304812</v>
       </c>
       <c r="I5" t="n">
+        <v>56800.68250488997</v>
+      </c>
+      <c r="J5" t="n">
+        <v>62079.9611402692</v>
+      </c>
+      <c r="K5" t="n">
+        <v>62079.9611402692</v>
+      </c>
+      <c r="L5" t="n">
+        <v>62561.1833454095</v>
+      </c>
+      <c r="M5" t="n">
         <v>56800.68250488998</v>
-      </c>
-      <c r="J5" t="n">
-        <v>62079.96114026912</v>
-      </c>
-      <c r="K5" t="n">
-        <v>62079.96114026912</v>
-      </c>
-      <c r="L5" t="n">
-        <v>62561.18334540944</v>
-      </c>
-      <c r="M5" t="n">
-        <v>56800.68250488997</v>
       </c>
       <c r="N5" t="n">
         <v>56800.68250488998</v>
       </c>
       <c r="O5" t="n">
-        <v>56800.68250488998</v>
+        <v>56800.68250488997</v>
       </c>
       <c r="P5" t="n">
-        <v>56800.68250488998</v>
+        <v>56800.68250488997</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109953.1336619886</v>
+        <v>109948.7650895214</v>
       </c>
       <c r="C6" t="n">
-        <v>109953.1336619885</v>
+        <v>109948.7650895214</v>
       </c>
       <c r="D6" t="n">
-        <v>107788.9280030902</v>
+        <v>107788.5432827787</v>
       </c>
       <c r="E6" t="n">
-        <v>-184656.0935270495</v>
+        <v>-184841.0182904253</v>
       </c>
       <c r="F6" t="n">
-        <v>187060.1163853929</v>
+        <v>186875.1916220167</v>
       </c>
       <c r="G6" t="n">
-        <v>149703.9097192178</v>
+        <v>149671.9645491152</v>
       </c>
       <c r="H6" t="n">
-        <v>190876.5185661973</v>
+        <v>190844.5733960949</v>
       </c>
       <c r="I6" t="n">
-        <v>182049.6707880332</v>
+        <v>182049.6707880336</v>
       </c>
       <c r="J6" t="n">
-        <v>102772.0070051998</v>
+        <v>102741.0418566647</v>
       </c>
       <c r="K6" t="n">
-        <v>185294.0961485737</v>
+        <v>185263.1310000388</v>
       </c>
       <c r="L6" t="n">
-        <v>134976.1944156975</v>
+        <v>134976.1944156985</v>
       </c>
       <c r="M6" t="n">
-        <v>43808.72866807918</v>
+        <v>43808.72866807917</v>
       </c>
       <c r="N6" t="n">
-        <v>193049.4382023562</v>
+        <v>193049.438202357</v>
       </c>
       <c r="O6" t="n">
-        <v>151865.1804793828</v>
+        <v>151865.1804793823</v>
       </c>
       <c r="P6" t="n">
-        <v>193049.4382023567</v>
+        <v>193049.4382023566</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>102.9460832124418</v>
       </c>
       <c r="G2" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="H2" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="I2" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="J2" t="n">
         <v>102.9460832124418</v>
@@ -26713,19 +26713,19 @@
         <v>102.9460832124418</v>
       </c>
       <c r="L2" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="M2" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="N2" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="O2" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="P2" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
     </row>
     <row r="3">
@@ -26744,19 +26744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>128.5410417941337</v>
+        <v>128.5410417941336</v>
       </c>
       <c r="F3" t="n">
-        <v>128.5410417941337</v>
+        <v>128.5410417941336</v>
       </c>
       <c r="G3" t="n">
-        <v>128.5410417941337</v>
+        <v>128.5410417941336</v>
       </c>
       <c r="H3" t="n">
-        <v>128.5410417941337</v>
+        <v>128.5410417941336</v>
       </c>
       <c r="I3" t="n">
-        <v>128.5410417941337</v>
+        <v>128.5410417941336</v>
       </c>
       <c r="J3" t="n">
         <v>128.5410417941336</v>
@@ -26796,40 +26796,40 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
-        <v>633.2608384194631</v>
+        <v>633.260838419463</v>
       </c>
       <c r="F4" t="n">
-        <v>633.2608384194631</v>
+        <v>633.260838419463</v>
       </c>
       <c r="G4" t="n">
-        <v>633.2608384194631</v>
+        <v>633.260838419463</v>
       </c>
       <c r="H4" t="n">
-        <v>633.2608384194631</v>
+        <v>633.260838419463</v>
       </c>
       <c r="I4" t="n">
         <v>674.6256325287039</v>
       </c>
       <c r="J4" t="n">
-        <v>832.6182920981948</v>
+        <v>832.6182920981962</v>
       </c>
       <c r="K4" t="n">
-        <v>832.6182920981948</v>
+        <v>832.6182920981962</v>
       </c>
       <c r="L4" t="n">
-        <v>822.6086133152635</v>
+        <v>822.6086133152648</v>
       </c>
       <c r="M4" t="n">
-        <v>674.6256325287038</v>
+        <v>674.625632528704</v>
       </c>
       <c r="N4" t="n">
-        <v>674.6256325287038</v>
+        <v>674.625632528704</v>
       </c>
       <c r="O4" t="n">
-        <v>674.625632528704</v>
+        <v>674.6256325287039</v>
       </c>
       <c r="P4" t="n">
-        <v>674.625632528704</v>
+        <v>674.6256325287039</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>51.46576105872433</v>
+        <v>51.46576105872427</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51.48032215371742</v>
+        <v>51.48032215371749</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>64.42904925226233</v>
+        <v>64.42904925226196</v>
       </c>
       <c r="M2" t="n">
-        <v>38.50247286518639</v>
+        <v>38.50247286518663</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.48032215371734</v>
+        <v>51.48032215371747</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>128.5410417941337</v>
+        <v>128.5410417941336</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
-        <v>623.2511596365317</v>
+        <v>623.2511596365316</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>41.36479410924085</v>
+        <v>41.36479410924096</v>
       </c>
       <c r="J4" t="n">
-        <v>157.9926595694909</v>
+        <v>157.9926595694923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>475.2681788499721</v>
+        <v>475.2681788499708</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.46576105872433</v>
+        <v>51.46576105872427</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.48032215371742</v>
+        <v>51.48032215371749</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="M4" t="n">
-        <v>623.2511596365317</v>
+        <v>623.2511596365316</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>381.286579050833</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>162.272501731286</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>79.72222485617382</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -27919,7 +27919,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>379.596758086989</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27944,7 +27944,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>118.6246899049423</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.17674743307231</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2618133344558</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -27992,13 +27992,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>230.0861850070171</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>185.928139458052</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>180.5864343039856</v>
       </c>
     </row>
     <row r="10">
@@ -28029,10 +28029,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>132.7513351704169</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>49.44698741703764</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.14228914991649</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>138.0168847888342</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>201.5629861874179</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>275.5018120437852</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>274.4783123957689</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>218.9302606806466</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>57.2717379442278</v>
+        <v>57.27173794422782</v>
       </c>
       <c r="S11" t="n">
         <v>102.9460832124418</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>57.2717379442278</v>
+        <v>57.27173794422781</v>
       </c>
       <c r="S14" t="n">
         <v>102.9460832124418</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="C17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="D17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="E17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="F17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="G17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="H17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="I17" t="n">
         <v>151.1671031298514</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>57.2717379442278</v>
+        <v>57.27173794422781</v>
       </c>
       <c r="S17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="T17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="U17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="V17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="W17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="X17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="Y17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
     </row>
     <row r="18">
@@ -28719,13 +28719,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="C19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="D19" t="n">
-        <v>120.3664530815037</v>
+        <v>120.3664530815048</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -28734,10 +28734,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="H19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="I19" t="n">
         <v>135.7902964737582</v>
@@ -28770,25 +28770,25 @@
         <v>137.604203035474</v>
       </c>
       <c r="S19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="T19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="U19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="V19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="W19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="X19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="Y19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="C20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="D20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="E20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="F20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="G20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="H20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="I20" t="n">
         <v>151.1671031298514</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>57.2717379442278</v>
+        <v>57.27173794422781</v>
       </c>
       <c r="S20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="T20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="U20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="V20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="W20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="X20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="Y20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="C22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,10 +28971,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="H22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="I22" t="n">
         <v>135.7902964737582</v>
@@ -29007,25 +29007,25 @@
         <v>137.604203035474</v>
       </c>
       <c r="S22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="T22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="U22" t="n">
-        <v>123.2371231121549</v>
+        <v>154.411844271166</v>
       </c>
       <c r="V22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="W22" t="n">
-        <v>154.4118442711661</v>
+        <v>123.237123112156</v>
       </c>
       <c r="X22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="Y22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="C23" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="D23" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="E23" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="F23" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="G23" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="H23" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="I23" t="n">
         <v>151.1671031298514</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>57.2717379442278</v>
+        <v>57.27173794422781</v>
       </c>
       <c r="S23" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="T23" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="U23" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="V23" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="W23" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="X23" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="Y23" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="C25" t="n">
-        <v>123.2371231121549</v>
+        <v>154.411844271166</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,10 +29208,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="H25" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="I25" t="n">
         <v>135.7902964737582</v>
@@ -29244,25 +29244,25 @@
         <v>137.604203035474</v>
       </c>
       <c r="S25" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="T25" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="U25" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="V25" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="W25" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
       <c r="X25" t="n">
-        <v>154.4118442711661</v>
+        <v>123.2371231121559</v>
       </c>
       <c r="Y25" t="n">
-        <v>154.4118442711661</v>
+        <v>154.411844271166</v>
       </c>
     </row>
     <row r="26">
@@ -29299,25 +29299,25 @@
         <v>102.9460832124418</v>
       </c>
       <c r="K26" t="n">
-        <v>102.9460832124418</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>102.9460832124418</v>
       </c>
       <c r="M26" t="n">
+        <v>65.18233514675882</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>102.9460832124418</v>
       </c>
-      <c r="N26" t="n">
+      <c r="P26" t="n">
         <v>102.9460832124418</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
       <c r="Q26" t="n">
-        <v>65.18233514675347</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="R26" t="n">
         <v>102.9460832124418</v>
@@ -29533,31 +29533,31 @@
         <v>102.9460832124418</v>
       </c>
       <c r="J29" t="n">
-        <v>102.9460832124418</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>102.9460832124418</v>
       </c>
       <c r="L29" t="n">
+        <v>7.910597202531051</v>
+      </c>
+      <c r="M29" t="n">
         <v>102.9460832124418</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="O29" t="n">
         <v>102.9460832124418</v>
       </c>
       <c r="P29" t="n">
-        <v>65.1823351467533</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="Q29" t="n">
         <v>102.9460832124418</v>
       </c>
       <c r="R29" t="n">
-        <v>102.9460832124418</v>
+        <v>57.27173794422782</v>
       </c>
       <c r="S29" t="n">
         <v>102.9460832124418</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="C32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="D32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="E32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="F32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="G32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="H32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="I32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="L32" t="n">
-        <v>115.9093714059798</v>
+        <v>63.67769372576339</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>63.67769372575674</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="P32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="R32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="S32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="T32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="U32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="V32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="W32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="X32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="Y32" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="C34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="D34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="E34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="F34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="G34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="H34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="I34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="J34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="K34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="L34" t="n">
-        <v>32.39788142077509</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="O34" t="n">
-        <v>115.9093714059798</v>
+        <v>32.39788142078154</v>
       </c>
       <c r="P34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="Q34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="R34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="S34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="T34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="U34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="V34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="W34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="X34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.9093714059798</v>
+        <v>115.9093714059795</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="C35" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="D35" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="E35" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="F35" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="G35" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="H35" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="I35" t="n">
         <v>151.1671031298514</v>
@@ -30034,25 +30034,25 @@
         <v>57.2717379442278</v>
       </c>
       <c r="S35" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="T35" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="U35" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="V35" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="W35" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="X35" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="Y35" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="C37" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>119.3142029372828</v>
+        <v>119.3142029372837</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="H37" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="I37" t="n">
         <v>135.7902964737582</v>
@@ -30192,25 +30192,25 @@
         <v>137.604203035474</v>
       </c>
       <c r="S37" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="T37" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="U37" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="W37" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="X37" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="Y37" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="C38" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="D38" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="E38" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="F38" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="G38" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="H38" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="I38" t="n">
         <v>151.1671031298514</v>
@@ -30271,25 +30271,25 @@
         <v>57.2717379442278</v>
       </c>
       <c r="S38" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="T38" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="U38" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="V38" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="W38" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="X38" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="Y38" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="C40" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,10 +30393,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="H40" t="n">
-        <v>123.2371231121538</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="I40" t="n">
         <v>135.7902964737582</v>
@@ -30429,25 +30429,25 @@
         <v>137.604203035474</v>
       </c>
       <c r="S40" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="T40" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="U40" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="W40" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="X40" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.4118442711662</v>
+        <v>123.2371231121554</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="C41" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="D41" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="E41" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="F41" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="G41" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="H41" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="I41" t="n">
         <v>151.1671031298514</v>
@@ -30508,25 +30508,25 @@
         <v>57.2717379442278</v>
       </c>
       <c r="S41" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="T41" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="U41" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="V41" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="W41" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="X41" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="Y41" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="C43" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,13 +30630,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="H43" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="I43" t="n">
-        <v>104.6155753147466</v>
+        <v>135.7902964737582</v>
       </c>
       <c r="J43" t="n">
         <v>43.06873698631364</v>
@@ -30666,25 +30666,25 @@
         <v>137.604203035474</v>
       </c>
       <c r="S43" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="T43" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="U43" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4118442711662</v>
+        <v>123.2371231121556</v>
       </c>
       <c r="W43" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="X43" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
       <c r="Y43" t="n">
-        <v>154.4118442711662</v>
+        <v>154.4118442711661</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="C44" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="D44" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="E44" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="F44" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="G44" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="H44" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="I44" t="n">
         <v>151.1671031298514</v>
@@ -30745,25 +30745,25 @@
         <v>57.2717379442278</v>
       </c>
       <c r="S44" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="T44" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="U44" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="V44" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="W44" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="X44" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="Y44" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
     </row>
     <row r="45">
@@ -30852,13 +30852,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="C46" t="n">
-        <v>123.2371231121546</v>
+        <v>154.411844271166</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>120.3664530815047</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30867,10 +30867,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="H46" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="I46" t="n">
         <v>135.7902964737582</v>
@@ -30903,25 +30903,25 @@
         <v>137.604203035474</v>
       </c>
       <c r="S46" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="T46" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="U46" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="W46" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="X46" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
       <c r="Y46" t="n">
-        <v>154.4118442711662</v>
+        <v>154.411844271166</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5167479067100846</v>
+        <v>0.5167479067100843</v>
       </c>
       <c r="H11" t="n">
-        <v>5.292144499594656</v>
+        <v>5.292144499594652</v>
       </c>
       <c r="I11" t="n">
-        <v>19.92192367344056</v>
+        <v>19.92192367344055</v>
       </c>
       <c r="J11" t="n">
-        <v>43.85833264713509</v>
+        <v>43.85833264713506</v>
       </c>
       <c r="K11" t="n">
-        <v>65.73227153817298</v>
+        <v>65.73227153817294</v>
       </c>
       <c r="L11" t="n">
-        <v>81.54669528815175</v>
+        <v>81.54669528815171</v>
       </c>
       <c r="M11" t="n">
-        <v>90.73641087410722</v>
+        <v>90.73641087410716</v>
       </c>
       <c r="N11" t="n">
-        <v>92.20462086404726</v>
+        <v>92.2046208640472</v>
       </c>
       <c r="O11" t="n">
-        <v>87.06620886669884</v>
+        <v>87.06620886669879</v>
       </c>
       <c r="P11" t="n">
-        <v>74.30899491979362</v>
+        <v>74.30899491979358</v>
       </c>
       <c r="Q11" t="n">
-        <v>55.80296051073869</v>
+        <v>55.80296051073866</v>
       </c>
       <c r="R11" t="n">
-        <v>32.46016569487738</v>
+        <v>32.46016569487736</v>
       </c>
       <c r="S11" t="n">
-        <v>11.77539292415607</v>
+        <v>11.77539292415606</v>
       </c>
       <c r="T11" t="n">
-        <v>2.262063961623397</v>
+        <v>2.262063961623396</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04133983253680677</v>
+        <v>0.04133983253680674</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2764845049911555</v>
+        <v>0.2764845049911552</v>
       </c>
       <c r="H12" t="n">
-        <v>2.670258245572475</v>
+        <v>2.670258245572473</v>
       </c>
       <c r="I12" t="n">
-        <v>9.519313000791975</v>
+        <v>9.51931300079197</v>
       </c>
       <c r="J12" t="n">
-        <v>26.12172246497579</v>
+        <v>26.12172246497577</v>
       </c>
       <c r="K12" t="n">
-        <v>44.6461842993832</v>
+        <v>44.64618429938317</v>
       </c>
       <c r="L12" t="n">
-        <v>60.03230447187347</v>
+        <v>60.03230447187343</v>
       </c>
       <c r="M12" t="n">
-        <v>70.05486777780284</v>
+        <v>70.05486777780278</v>
       </c>
       <c r="N12" t="n">
-        <v>71.90901167311634</v>
+        <v>71.9090116731163</v>
       </c>
       <c r="O12" t="n">
-        <v>65.78269711515442</v>
+        <v>65.78269711515438</v>
       </c>
       <c r="P12" t="n">
-        <v>52.79641393993388</v>
+        <v>52.79641393993385</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.29300453185346</v>
+        <v>35.29300453185343</v>
       </c>
       <c r="R12" t="n">
-        <v>17.16629233620525</v>
+        <v>17.16629233620524</v>
       </c>
       <c r="S12" t="n">
-        <v>5.135578415076941</v>
+        <v>5.135578415076937</v>
       </c>
       <c r="T12" t="n">
-        <v>1.114426579328385</v>
+        <v>1.114426579328384</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0181897700652076</v>
+        <v>0.01818977006520759</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2317953212681099</v>
+        <v>0.2317953212681097</v>
       </c>
       <c r="H13" t="n">
-        <v>2.060871129092833</v>
+        <v>2.060871129092831</v>
       </c>
       <c r="I13" t="n">
-        <v>6.970717479590069</v>
+        <v>6.970717479590065</v>
       </c>
       <c r="J13" t="n">
-        <v>16.38792921365537</v>
+        <v>16.38792921365535</v>
       </c>
       <c r="K13" t="n">
-        <v>26.93040187096767</v>
+        <v>26.93040187096765</v>
       </c>
       <c r="L13" t="n">
-        <v>34.4616425819879</v>
+        <v>34.46164258198788</v>
       </c>
       <c r="M13" t="n">
-        <v>36.33497022387289</v>
+        <v>36.33497022387287</v>
       </c>
       <c r="N13" t="n">
-        <v>35.47100584460087</v>
+        <v>35.47100584460085</v>
       </c>
       <c r="O13" t="n">
-        <v>32.76321504615067</v>
+        <v>32.76321504615065</v>
       </c>
       <c r="P13" t="n">
-        <v>28.0345904922812</v>
+        <v>28.03459049228118</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.40969731091418</v>
+        <v>19.40969731091417</v>
       </c>
       <c r="R13" t="n">
         <v>10.42236053629155</v>
       </c>
       <c r="S13" t="n">
-        <v>4.03956028064515</v>
+        <v>4.039560280645147</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9903981908728328</v>
+        <v>0.9903981908728321</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01264338116007873</v>
+        <v>0.01264338116007872</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,34 +31987,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5167479067100846</v>
+        <v>0.5167479067100845</v>
       </c>
       <c r="H14" t="n">
-        <v>5.292144499594656</v>
+        <v>5.292144499594655</v>
       </c>
       <c r="I14" t="n">
         <v>19.92192367344056</v>
       </c>
       <c r="J14" t="n">
-        <v>43.85833264713509</v>
+        <v>43.85833264713508</v>
       </c>
       <c r="K14" t="n">
-        <v>65.73227153817298</v>
+        <v>65.73227153817297</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54669528815175</v>
+        <v>81.54669528815174</v>
       </c>
       <c r="M14" t="n">
-        <v>90.73641087410722</v>
+        <v>90.73641087410721</v>
       </c>
       <c r="N14" t="n">
-        <v>92.20462086404726</v>
+        <v>92.20462086404724</v>
       </c>
       <c r="O14" t="n">
-        <v>87.06620886669884</v>
+        <v>87.06620886669883</v>
       </c>
       <c r="P14" t="n">
-        <v>74.30899491979362</v>
+        <v>74.30899491979361</v>
       </c>
       <c r="Q14" t="n">
         <v>55.80296051073869</v>
@@ -32023,13 +32023,13 @@
         <v>32.46016569487738</v>
       </c>
       <c r="S14" t="n">
-        <v>11.77539292415607</v>
+        <v>11.77539292415606</v>
       </c>
       <c r="T14" t="n">
-        <v>2.262063961623397</v>
+        <v>2.262063961623396</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04133983253680677</v>
+        <v>0.04133983253680676</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2764845049911555</v>
+        <v>0.2764845049911554</v>
       </c>
       <c r="H15" t="n">
         <v>2.670258245572475</v>
       </c>
       <c r="I15" t="n">
-        <v>9.519313000791975</v>
+        <v>9.519313000791973</v>
       </c>
       <c r="J15" t="n">
-        <v>26.12172246497579</v>
+        <v>26.12172246497578</v>
       </c>
       <c r="K15" t="n">
-        <v>44.6461842993832</v>
+        <v>44.64618429938319</v>
       </c>
       <c r="L15" t="n">
-        <v>60.03230447187347</v>
+        <v>60.03230447187345</v>
       </c>
       <c r="M15" t="n">
-        <v>70.05486777780284</v>
+        <v>70.05486777780283</v>
       </c>
       <c r="N15" t="n">
-        <v>71.90901167311634</v>
+        <v>71.90901167311632</v>
       </c>
       <c r="O15" t="n">
-        <v>65.78269711515442</v>
+        <v>65.78269711515441</v>
       </c>
       <c r="P15" t="n">
         <v>52.79641393993388</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.29300453185346</v>
+        <v>35.29300453185345</v>
       </c>
       <c r="R15" t="n">
         <v>17.16629233620525</v>
       </c>
       <c r="S15" t="n">
-        <v>5.135578415076941</v>
+        <v>5.13557841507694</v>
       </c>
       <c r="T15" t="n">
         <v>1.114426579328385</v>
@@ -32145,31 +32145,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2317953212681099</v>
+        <v>0.2317953212681098</v>
       </c>
       <c r="H16" t="n">
-        <v>2.060871129092833</v>
+        <v>2.060871129092832</v>
       </c>
       <c r="I16" t="n">
-        <v>6.970717479590069</v>
+        <v>6.970717479590068</v>
       </c>
       <c r="J16" t="n">
-        <v>16.38792921365537</v>
+        <v>16.38792921365536</v>
       </c>
       <c r="K16" t="n">
-        <v>26.93040187096767</v>
+        <v>26.93040187096766</v>
       </c>
       <c r="L16" t="n">
         <v>34.4616425819879</v>
       </c>
       <c r="M16" t="n">
-        <v>36.33497022387289</v>
+        <v>36.33497022387288</v>
       </c>
       <c r="N16" t="n">
         <v>35.47100584460087</v>
       </c>
       <c r="O16" t="n">
-        <v>32.76321504615067</v>
+        <v>32.76321504615066</v>
       </c>
       <c r="P16" t="n">
         <v>28.0345904922812</v>
@@ -32181,10 +32181,10 @@
         <v>10.42236053629155</v>
       </c>
       <c r="S16" t="n">
-        <v>4.03956028064515</v>
+        <v>4.039560280645149</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9903981908728328</v>
+        <v>0.9903981908728325</v>
       </c>
       <c r="U16" t="n">
         <v>0.01264338116007873</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5167479067100846</v>
+        <v>0.5167479067100845</v>
       </c>
       <c r="H17" t="n">
-        <v>5.292144499594656</v>
+        <v>5.292144499594655</v>
       </c>
       <c r="I17" t="n">
         <v>19.92192367344056</v>
       </c>
       <c r="J17" t="n">
-        <v>43.85833264713509</v>
+        <v>43.85833264713508</v>
       </c>
       <c r="K17" t="n">
-        <v>65.73227153817298</v>
+        <v>65.73227153817297</v>
       </c>
       <c r="L17" t="n">
-        <v>81.54669528815175</v>
+        <v>81.54669528815174</v>
       </c>
       <c r="M17" t="n">
-        <v>90.73641087410722</v>
+        <v>90.73641087410721</v>
       </c>
       <c r="N17" t="n">
-        <v>92.20462086404726</v>
+        <v>92.20462086404724</v>
       </c>
       <c r="O17" t="n">
-        <v>87.06620886669884</v>
+        <v>87.06620886669883</v>
       </c>
       <c r="P17" t="n">
-        <v>74.30899491979362</v>
+        <v>74.30899491979361</v>
       </c>
       <c r="Q17" t="n">
         <v>55.80296051073869</v>
@@ -32260,13 +32260,13 @@
         <v>32.46016569487738</v>
       </c>
       <c r="S17" t="n">
-        <v>11.77539292415607</v>
+        <v>11.77539292415606</v>
       </c>
       <c r="T17" t="n">
-        <v>2.262063961623397</v>
+        <v>2.262063961623396</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04133983253680677</v>
+        <v>0.04133983253680676</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2764845049911555</v>
+        <v>0.2764845049911554</v>
       </c>
       <c r="H18" t="n">
         <v>2.670258245572475</v>
       </c>
       <c r="I18" t="n">
-        <v>9.519313000791975</v>
+        <v>9.519313000791973</v>
       </c>
       <c r="J18" t="n">
-        <v>26.12172246497579</v>
+        <v>26.12172246497578</v>
       </c>
       <c r="K18" t="n">
-        <v>44.6461842993832</v>
+        <v>44.64618429938319</v>
       </c>
       <c r="L18" t="n">
-        <v>60.03230447187347</v>
+        <v>60.03230447187345</v>
       </c>
       <c r="M18" t="n">
-        <v>70.05486777780284</v>
+        <v>70.05486777780283</v>
       </c>
       <c r="N18" t="n">
-        <v>71.90901167311634</v>
+        <v>71.90901167311632</v>
       </c>
       <c r="O18" t="n">
-        <v>65.78269711515442</v>
+        <v>65.78269711515441</v>
       </c>
       <c r="P18" t="n">
         <v>52.79641393993388</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.29300453185346</v>
+        <v>35.29300453185345</v>
       </c>
       <c r="R18" t="n">
         <v>17.16629233620525</v>
       </c>
       <c r="S18" t="n">
-        <v>5.135578415076941</v>
+        <v>5.13557841507694</v>
       </c>
       <c r="T18" t="n">
         <v>1.114426579328385</v>
@@ -32382,31 +32382,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2317953212681099</v>
+        <v>0.2317953212681098</v>
       </c>
       <c r="H19" t="n">
-        <v>2.060871129092833</v>
+        <v>2.060871129092832</v>
       </c>
       <c r="I19" t="n">
-        <v>6.970717479590069</v>
+        <v>6.970717479590068</v>
       </c>
       <c r="J19" t="n">
-        <v>16.38792921365537</v>
+        <v>16.38792921365536</v>
       </c>
       <c r="K19" t="n">
-        <v>26.93040187096767</v>
+        <v>26.93040187096766</v>
       </c>
       <c r="L19" t="n">
         <v>34.4616425819879</v>
       </c>
       <c r="M19" t="n">
-        <v>36.33497022387289</v>
+        <v>36.33497022387288</v>
       </c>
       <c r="N19" t="n">
         <v>35.47100584460087</v>
       </c>
       <c r="O19" t="n">
-        <v>32.76321504615067</v>
+        <v>32.76321504615066</v>
       </c>
       <c r="P19" t="n">
         <v>28.0345904922812</v>
@@ -32418,10 +32418,10 @@
         <v>10.42236053629155</v>
       </c>
       <c r="S19" t="n">
-        <v>4.03956028064515</v>
+        <v>4.039560280645149</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9903981908728328</v>
+        <v>0.9903981908728325</v>
       </c>
       <c r="U19" t="n">
         <v>0.01264338116007873</v>
@@ -32461,34 +32461,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5167479067100846</v>
+        <v>0.5167479067100845</v>
       </c>
       <c r="H20" t="n">
-        <v>5.292144499594656</v>
+        <v>5.292144499594655</v>
       </c>
       <c r="I20" t="n">
         <v>19.92192367344056</v>
       </c>
       <c r="J20" t="n">
-        <v>43.85833264713509</v>
+        <v>43.85833264713508</v>
       </c>
       <c r="K20" t="n">
-        <v>65.73227153817298</v>
+        <v>65.73227153817297</v>
       </c>
       <c r="L20" t="n">
-        <v>81.54669528815175</v>
+        <v>81.54669528815174</v>
       </c>
       <c r="M20" t="n">
-        <v>90.73641087410722</v>
+        <v>90.73641087410721</v>
       </c>
       <c r="N20" t="n">
-        <v>92.20462086404726</v>
+        <v>92.20462086404724</v>
       </c>
       <c r="O20" t="n">
-        <v>87.06620886669884</v>
+        <v>87.06620886669883</v>
       </c>
       <c r="P20" t="n">
-        <v>74.30899491979362</v>
+        <v>74.30899491979361</v>
       </c>
       <c r="Q20" t="n">
         <v>55.80296051073869</v>
@@ -32497,13 +32497,13 @@
         <v>32.46016569487738</v>
       </c>
       <c r="S20" t="n">
-        <v>11.77539292415607</v>
+        <v>11.77539292415606</v>
       </c>
       <c r="T20" t="n">
-        <v>2.262063961623397</v>
+        <v>2.262063961623396</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04133983253680677</v>
+        <v>0.04133983253680676</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2764845049911555</v>
+        <v>0.2764845049911554</v>
       </c>
       <c r="H21" t="n">
         <v>2.670258245572475</v>
       </c>
       <c r="I21" t="n">
-        <v>9.519313000791975</v>
+        <v>9.519313000791973</v>
       </c>
       <c r="J21" t="n">
-        <v>26.12172246497579</v>
+        <v>26.12172246497578</v>
       </c>
       <c r="K21" t="n">
-        <v>44.6461842993832</v>
+        <v>44.64618429938319</v>
       </c>
       <c r="L21" t="n">
-        <v>60.03230447187347</v>
+        <v>60.03230447187345</v>
       </c>
       <c r="M21" t="n">
-        <v>70.05486777780284</v>
+        <v>70.05486777780283</v>
       </c>
       <c r="N21" t="n">
-        <v>71.90901167311634</v>
+        <v>71.90901167311632</v>
       </c>
       <c r="O21" t="n">
-        <v>65.78269711515442</v>
+        <v>65.78269711515441</v>
       </c>
       <c r="P21" t="n">
         <v>52.79641393993388</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.29300453185346</v>
+        <v>35.29300453185345</v>
       </c>
       <c r="R21" t="n">
         <v>17.16629233620525</v>
       </c>
       <c r="S21" t="n">
-        <v>5.135578415076941</v>
+        <v>5.13557841507694</v>
       </c>
       <c r="T21" t="n">
         <v>1.114426579328385</v>
@@ -32619,31 +32619,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2317953212681099</v>
+        <v>0.2317953212681098</v>
       </c>
       <c r="H22" t="n">
-        <v>2.060871129092833</v>
+        <v>2.060871129092832</v>
       </c>
       <c r="I22" t="n">
-        <v>6.970717479590069</v>
+        <v>6.970717479590068</v>
       </c>
       <c r="J22" t="n">
-        <v>16.38792921365537</v>
+        <v>16.38792921365536</v>
       </c>
       <c r="K22" t="n">
-        <v>26.93040187096767</v>
+        <v>26.93040187096766</v>
       </c>
       <c r="L22" t="n">
         <v>34.4616425819879</v>
       </c>
       <c r="M22" t="n">
-        <v>36.33497022387289</v>
+        <v>36.33497022387288</v>
       </c>
       <c r="N22" t="n">
         <v>35.47100584460087</v>
       </c>
       <c r="O22" t="n">
-        <v>32.76321504615067</v>
+        <v>32.76321504615066</v>
       </c>
       <c r="P22" t="n">
         <v>28.0345904922812</v>
@@ -32655,10 +32655,10 @@
         <v>10.42236053629155</v>
       </c>
       <c r="S22" t="n">
-        <v>4.03956028064515</v>
+        <v>4.039560280645149</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9903981908728328</v>
+        <v>0.9903981908728325</v>
       </c>
       <c r="U22" t="n">
         <v>0.01264338116007873</v>
@@ -32698,34 +32698,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5167479067100846</v>
+        <v>0.5167479067100845</v>
       </c>
       <c r="H23" t="n">
-        <v>5.292144499594656</v>
+        <v>5.292144499594655</v>
       </c>
       <c r="I23" t="n">
         <v>19.92192367344056</v>
       </c>
       <c r="J23" t="n">
-        <v>43.85833264713509</v>
+        <v>43.85833264713508</v>
       </c>
       <c r="K23" t="n">
-        <v>65.73227153817298</v>
+        <v>65.73227153817297</v>
       </c>
       <c r="L23" t="n">
-        <v>81.54669528815175</v>
+        <v>81.54669528815174</v>
       </c>
       <c r="M23" t="n">
-        <v>90.73641087410722</v>
+        <v>90.73641087410721</v>
       </c>
       <c r="N23" t="n">
-        <v>92.20462086404726</v>
+        <v>92.20462086404724</v>
       </c>
       <c r="O23" t="n">
-        <v>87.06620886669884</v>
+        <v>87.06620886669883</v>
       </c>
       <c r="P23" t="n">
-        <v>74.30899491979362</v>
+        <v>74.30899491979361</v>
       </c>
       <c r="Q23" t="n">
         <v>55.80296051073869</v>
@@ -32734,13 +32734,13 @@
         <v>32.46016569487738</v>
       </c>
       <c r="S23" t="n">
-        <v>11.77539292415607</v>
+        <v>11.77539292415606</v>
       </c>
       <c r="T23" t="n">
-        <v>2.262063961623397</v>
+        <v>2.262063961623396</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04133983253680677</v>
+        <v>0.04133983253680676</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2764845049911555</v>
+        <v>0.2764845049911554</v>
       </c>
       <c r="H24" t="n">
         <v>2.670258245572475</v>
       </c>
       <c r="I24" t="n">
-        <v>9.519313000791975</v>
+        <v>9.519313000791973</v>
       </c>
       <c r="J24" t="n">
-        <v>26.12172246497579</v>
+        <v>26.12172246497578</v>
       </c>
       <c r="K24" t="n">
-        <v>44.6461842993832</v>
+        <v>44.64618429938319</v>
       </c>
       <c r="L24" t="n">
-        <v>60.03230447187347</v>
+        <v>60.03230447187345</v>
       </c>
       <c r="M24" t="n">
-        <v>70.05486777780284</v>
+        <v>70.05486777780283</v>
       </c>
       <c r="N24" t="n">
-        <v>71.90901167311634</v>
+        <v>71.90901167311632</v>
       </c>
       <c r="O24" t="n">
-        <v>65.78269711515442</v>
+        <v>65.78269711515441</v>
       </c>
       <c r="P24" t="n">
         <v>52.79641393993388</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.29300453185346</v>
+        <v>35.29300453185345</v>
       </c>
       <c r="R24" t="n">
         <v>17.16629233620525</v>
       </c>
       <c r="S24" t="n">
-        <v>5.135578415076941</v>
+        <v>5.13557841507694</v>
       </c>
       <c r="T24" t="n">
         <v>1.114426579328385</v>
@@ -32856,31 +32856,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2317953212681099</v>
+        <v>0.2317953212681098</v>
       </c>
       <c r="H25" t="n">
-        <v>2.060871129092833</v>
+        <v>2.060871129092832</v>
       </c>
       <c r="I25" t="n">
-        <v>6.970717479590069</v>
+        <v>6.970717479590068</v>
       </c>
       <c r="J25" t="n">
-        <v>16.38792921365537</v>
+        <v>16.38792921365536</v>
       </c>
       <c r="K25" t="n">
-        <v>26.93040187096767</v>
+        <v>26.93040187096766</v>
       </c>
       <c r="L25" t="n">
         <v>34.4616425819879</v>
       </c>
       <c r="M25" t="n">
-        <v>36.33497022387289</v>
+        <v>36.33497022387288</v>
       </c>
       <c r="N25" t="n">
         <v>35.47100584460087</v>
       </c>
       <c r="O25" t="n">
-        <v>32.76321504615067</v>
+        <v>32.76321504615066</v>
       </c>
       <c r="P25" t="n">
         <v>28.0345904922812</v>
@@ -32892,10 +32892,10 @@
         <v>10.42236053629155</v>
       </c>
       <c r="S25" t="n">
-        <v>4.03956028064515</v>
+        <v>4.039560280645149</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9903981908728328</v>
+        <v>0.9903981908728325</v>
       </c>
       <c r="U25" t="n">
         <v>0.01264338116007873</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5167479067100843</v>
+        <v>0.5167479067100845</v>
       </c>
       <c r="H26" t="n">
-        <v>5.292144499594652</v>
+        <v>5.292144499594655</v>
       </c>
       <c r="I26" t="n">
-        <v>19.92192367344055</v>
+        <v>19.92192367344056</v>
       </c>
       <c r="J26" t="n">
-        <v>43.85833264713506</v>
+        <v>43.85833264713508</v>
       </c>
       <c r="K26" t="n">
-        <v>65.73227153817294</v>
+        <v>65.73227153817297</v>
       </c>
       <c r="L26" t="n">
-        <v>81.54669528815171</v>
+        <v>81.54669528815174</v>
       </c>
       <c r="M26" t="n">
-        <v>90.73641087410716</v>
+        <v>90.73641087410721</v>
       </c>
       <c r="N26" t="n">
-        <v>92.2046208640472</v>
+        <v>92.20462086404724</v>
       </c>
       <c r="O26" t="n">
-        <v>87.06620886669879</v>
+        <v>87.06620886669883</v>
       </c>
       <c r="P26" t="n">
-        <v>74.30899491979358</v>
+        <v>74.30899491979361</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.80296051073866</v>
+        <v>55.80296051073869</v>
       </c>
       <c r="R26" t="n">
-        <v>32.46016569487736</v>
+        <v>32.46016569487738</v>
       </c>
       <c r="S26" t="n">
         <v>11.77539292415606</v>
@@ -32977,7 +32977,7 @@
         <v>2.262063961623396</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04133983253680674</v>
+        <v>0.04133983253680676</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2764845049911552</v>
+        <v>0.2764845049911554</v>
       </c>
       <c r="H27" t="n">
-        <v>2.670258245572473</v>
+        <v>2.670258245572475</v>
       </c>
       <c r="I27" t="n">
-        <v>9.51931300079197</v>
+        <v>9.519313000791973</v>
       </c>
       <c r="J27" t="n">
-        <v>26.12172246497577</v>
+        <v>26.12172246497578</v>
       </c>
       <c r="K27" t="n">
-        <v>44.64618429938317</v>
+        <v>44.64618429938319</v>
       </c>
       <c r="L27" t="n">
-        <v>60.03230447187343</v>
+        <v>60.03230447187345</v>
       </c>
       <c r="M27" t="n">
-        <v>70.05486777780278</v>
+        <v>70.05486777780283</v>
       </c>
       <c r="N27" t="n">
-        <v>71.9090116731163</v>
+        <v>71.90901167311632</v>
       </c>
       <c r="O27" t="n">
-        <v>65.78269711515438</v>
+        <v>65.78269711515441</v>
       </c>
       <c r="P27" t="n">
-        <v>52.79641393993385</v>
+        <v>52.79641393993388</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.29300453185343</v>
+        <v>35.29300453185345</v>
       </c>
       <c r="R27" t="n">
-        <v>17.16629233620524</v>
+        <v>17.16629233620525</v>
       </c>
       <c r="S27" t="n">
-        <v>5.135578415076937</v>
+        <v>5.13557841507694</v>
       </c>
       <c r="T27" t="n">
-        <v>1.114426579328384</v>
+        <v>1.114426579328385</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01818977006520759</v>
+        <v>0.0181897700652076</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2317953212681097</v>
+        <v>0.2317953212681098</v>
       </c>
       <c r="H28" t="n">
-        <v>2.060871129092831</v>
+        <v>2.060871129092832</v>
       </c>
       <c r="I28" t="n">
-        <v>6.970717479590065</v>
+        <v>6.970717479590068</v>
       </c>
       <c r="J28" t="n">
-        <v>16.38792921365535</v>
+        <v>16.38792921365536</v>
       </c>
       <c r="K28" t="n">
-        <v>26.93040187096765</v>
+        <v>26.93040187096766</v>
       </c>
       <c r="L28" t="n">
-        <v>34.46164258198788</v>
+        <v>34.4616425819879</v>
       </c>
       <c r="M28" t="n">
-        <v>36.33497022387287</v>
+        <v>36.33497022387288</v>
       </c>
       <c r="N28" t="n">
-        <v>35.47100584460085</v>
+        <v>35.47100584460087</v>
       </c>
       <c r="O28" t="n">
-        <v>32.76321504615065</v>
+        <v>32.76321504615066</v>
       </c>
       <c r="P28" t="n">
-        <v>28.03459049228118</v>
+        <v>28.0345904922812</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.40969731091417</v>
+        <v>19.40969731091418</v>
       </c>
       <c r="R28" t="n">
         <v>10.42236053629155</v>
       </c>
       <c r="S28" t="n">
-        <v>4.039560280645147</v>
+        <v>4.039560280645149</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9903981908728321</v>
+        <v>0.9903981908728325</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01264338116007872</v>
+        <v>0.01264338116007873</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="L8" t="n">
-        <v>9.605247316954339</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>10.00967878293136</v>
       </c>
       <c r="L9" t="n">
+        <v>9.605247316954337</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="M9" t="n">
-        <v>9.605247316954333</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="L10" t="n">
+      <c r="O10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.605247316954333</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.5841349428984</v>
+        <v>116.5841349428983</v>
       </c>
       <c r="K11" t="n">
         <v>308.2983039066404</v>
@@ -35416,16 +35416,16 @@
         <v>432.9460620406227</v>
       </c>
       <c r="M11" t="n">
-        <v>487.9476899176304</v>
+        <v>487.9476899176303</v>
       </c>
       <c r="N11" t="n">
-        <v>461.7587121485522</v>
+        <v>474.3575084273964</v>
       </c>
       <c r="O11" t="n">
-        <v>395.1516477281473</v>
+        <v>395.1516477281472</v>
       </c>
       <c r="P11" t="n">
-        <v>304.7705064915646</v>
+        <v>292.1717102127203</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>86.98449674084058</v>
+        <v>86.98449674084057</v>
       </c>
       <c r="K12" t="n">
         <v>276.4548232490687</v>
@@ -35495,19 +35495,19 @@
         <v>429.5493197952226</v>
       </c>
       <c r="M12" t="n">
-        <v>559.9875480911629</v>
+        <v>559.9875480911628</v>
       </c>
       <c r="N12" t="n">
-        <v>139.9345114446957</v>
+        <v>588.3389572520275</v>
       </c>
       <c r="O12" t="n">
-        <v>461.9442635637917</v>
+        <v>208.1981049000242</v>
       </c>
       <c r="P12" t="n">
         <v>357.9438071477089</v>
       </c>
       <c r="Q12" t="n">
-        <v>194.6582871435648</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.87734622612815</v>
+        <v>59.87734622612813</v>
       </c>
       <c r="K13" t="n">
-        <v>163.8201090678978</v>
+        <v>163.8201090678977</v>
       </c>
       <c r="L13" t="n">
         <v>239.0310383199443</v>
       </c>
       <c r="M13" t="n">
-        <v>258.466413161165</v>
+        <v>258.4664131611648</v>
       </c>
       <c r="N13" t="n">
-        <v>258.035616076841</v>
+        <v>258.0356160768409</v>
       </c>
       <c r="O13" t="n">
-        <v>235.1675270421174</v>
+        <v>235.1675270421173</v>
       </c>
       <c r="P13" t="n">
         <v>194.585202723044</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.20381259050812</v>
+        <v>84.20381259050809</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>116.5841349428984</v>
       </c>
       <c r="K14" t="n">
-        <v>308.2983039066404</v>
+        <v>144.5104322821711</v>
       </c>
       <c r="L14" t="n">
         <v>432.9460620406227</v>
@@ -35659,13 +35659,13 @@
         <v>474.3575084273965</v>
       </c>
       <c r="O14" t="n">
-        <v>231.363776103678</v>
+        <v>395.1516477281473</v>
       </c>
       <c r="P14" t="n">
         <v>304.7705064915646</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.1890753456246</v>
+        <v>151.1890753456245</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>86.98449674084058</v>
+        <v>86.98449674084057</v>
       </c>
       <c r="K15" t="n">
-        <v>276.4548232490687</v>
+        <v>22.70866458530091</v>
       </c>
       <c r="L15" t="n">
         <v>429.5493197952226</v>
       </c>
       <c r="M15" t="n">
-        <v>111.5831022838302</v>
+        <v>559.9875480911628</v>
       </c>
       <c r="N15" t="n">
         <v>588.3389572520275</v>
@@ -35744,7 +35744,7 @@
         <v>357.9438071477089</v>
       </c>
       <c r="Q15" t="n">
-        <v>194.6582871435648</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.87734622612817</v>
+        <v>59.87734622612814</v>
       </c>
       <c r="K16" t="n">
         <v>163.8201090678978</v>
@@ -35811,10 +35811,10 @@
         <v>239.0310383199443</v>
       </c>
       <c r="M16" t="n">
-        <v>258.466413161165</v>
+        <v>258.4664131611649</v>
       </c>
       <c r="N16" t="n">
-        <v>258.0356160768411</v>
+        <v>258.035616076841</v>
       </c>
       <c r="O16" t="n">
         <v>235.1675270421174</v>
@@ -35823,7 +35823,7 @@
         <v>194.585202723044</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.20381259050814</v>
+        <v>84.20381259050811</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>116.5841349428984</v>
       </c>
       <c r="K17" t="n">
         <v>308.2983039066404</v>
@@ -35893,16 +35893,16 @@
         <v>487.9476899176304</v>
       </c>
       <c r="N17" t="n">
-        <v>474.3575084273965</v>
+        <v>310.569636802927</v>
       </c>
       <c r="O17" t="n">
         <v>395.1516477281473</v>
       </c>
       <c r="P17" t="n">
-        <v>257.5667698099937</v>
+        <v>304.7705064915646</v>
       </c>
       <c r="Q17" t="n">
-        <v>151.1890753456246</v>
+        <v>151.1890753456245</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>276.4548232490687</v>
       </c>
       <c r="L18" t="n">
         <v>429.5493197952226</v>
       </c>
       <c r="M18" t="n">
-        <v>559.9875480911629</v>
+        <v>559.9875480911628</v>
       </c>
       <c r="N18" t="n">
-        <v>588.3389572520275</v>
+        <v>421.5772953291003</v>
       </c>
       <c r="O18" t="n">
         <v>461.9442635637917</v>
@@ -35981,7 +35981,7 @@
         <v>357.9438071477089</v>
       </c>
       <c r="Q18" t="n">
-        <v>109.6931613261413</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>60.87402585545597</v>
+        <v>60.87402585545595</v>
       </c>
       <c r="L19" t="n">
         <v>136.0849551075025</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>116.5841349428984</v>
       </c>
       <c r="K20" t="n">
-        <v>261.0945672250697</v>
+        <v>308.2983039066404</v>
       </c>
       <c r="L20" t="n">
         <v>432.9460620406227</v>
@@ -36133,13 +36133,13 @@
         <v>474.3575084273965</v>
       </c>
       <c r="O20" t="n">
-        <v>395.1516477281473</v>
+        <v>382.5528514493026</v>
       </c>
       <c r="P20" t="n">
         <v>304.7705064915646</v>
       </c>
       <c r="Q20" t="n">
-        <v>151.1890753456246</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>86.98449674084058</v>
+        <v>86.98449674084057</v>
       </c>
       <c r="K21" t="n">
         <v>276.4548232490687</v>
@@ -36206,19 +36206,19 @@
         <v>429.5493197952226</v>
       </c>
       <c r="M21" t="n">
-        <v>559.9875480911629</v>
+        <v>559.9875480911628</v>
       </c>
       <c r="N21" t="n">
-        <v>139.9345114446957</v>
+        <v>588.3389572520275</v>
       </c>
       <c r="O21" t="n">
-        <v>461.9442635637917</v>
+        <v>208.1981049000238</v>
       </c>
       <c r="P21" t="n">
         <v>357.9438071477089</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.6582871435648</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>60.87402585545597</v>
+        <v>60.87402585545595</v>
       </c>
       <c r="L22" t="n">
         <v>136.0849551075025</v>
@@ -36376,7 +36376,7 @@
         <v>304.7705064915646</v>
       </c>
       <c r="Q23" t="n">
-        <v>151.1890753456246</v>
+        <v>151.1890753456245</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>276.4548232490687</v>
       </c>
       <c r="L24" t="n">
         <v>429.5493197952226</v>
       </c>
       <c r="M24" t="n">
-        <v>559.9875480911629</v>
+        <v>393.2258861682355</v>
       </c>
       <c r="N24" t="n">
-        <v>503.3738314346038</v>
+        <v>588.3389572520275</v>
       </c>
       <c r="O24" t="n">
         <v>461.9442635637917</v>
@@ -36455,7 +36455,7 @@
         <v>357.9438071477089</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.6582871435648</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>60.87402585545597</v>
+        <v>60.87402585545595</v>
       </c>
       <c r="L25" t="n">
         <v>136.0849551075025</v>
@@ -36595,28 +36595,28 @@
         <v>219.5302181553401</v>
       </c>
       <c r="K26" t="n">
-        <v>411.2443871190821</v>
+        <v>308.2983039066404</v>
       </c>
       <c r="L26" t="n">
         <v>535.8921452530644</v>
       </c>
       <c r="M26" t="n">
-        <v>590.8937731300721</v>
+        <v>553.1300250643892</v>
       </c>
       <c r="N26" t="n">
-        <v>577.3035916398381</v>
+        <v>474.3575084273965</v>
       </c>
       <c r="O26" t="n">
-        <v>395.1516477281472</v>
+        <v>498.097730940589</v>
       </c>
       <c r="P26" t="n">
-        <v>304.7705064915645</v>
+        <v>407.7165897040063</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.371410492378</v>
+        <v>254.1351585580663</v>
       </c>
       <c r="R26" t="n">
-        <v>45.67434526821394</v>
+        <v>45.67434526821395</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>429.5493197952226</v>
       </c>
       <c r="M27" t="n">
-        <v>111.5831022838304</v>
+        <v>559.9875480911628</v>
       </c>
       <c r="N27" t="n">
         <v>588.3389572520275</v>
       </c>
       <c r="O27" t="n">
-        <v>461.9442635637917</v>
+        <v>13.53981775645907</v>
       </c>
       <c r="P27" t="n">
         <v>357.9438071477089</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.87734622612812</v>
+        <v>59.87734622612813</v>
       </c>
       <c r="K28" t="n">
         <v>163.8201090678977</v>
@@ -36759,10 +36759,10 @@
         <v>239.0310383199443</v>
       </c>
       <c r="M28" t="n">
-        <v>258.4664131611648</v>
+        <v>258.4664131611649</v>
       </c>
       <c r="N28" t="n">
-        <v>258.0356160768409</v>
+        <v>258.035616076841</v>
       </c>
       <c r="O28" t="n">
         <v>235.1675270421173</v>
@@ -36771,7 +36771,7 @@
         <v>194.5852027230439</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.20381259050808</v>
+        <v>84.20381259050809</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.5302181553401</v>
+        <v>116.5841349428983</v>
       </c>
       <c r="K29" t="n">
         <v>411.2443871190821</v>
       </c>
       <c r="L29" t="n">
-        <v>535.8921452530644</v>
+        <v>440.8566592431537</v>
       </c>
       <c r="M29" t="n">
-        <v>487.9476899176303</v>
+        <v>590.8937731300721</v>
       </c>
       <c r="N29" t="n">
-        <v>474.3575084273964</v>
+        <v>577.3035916398383</v>
       </c>
       <c r="O29" t="n">
         <v>498.097730940589</v>
       </c>
       <c r="P29" t="n">
-        <v>369.9528416383178</v>
+        <v>407.7165897040063</v>
       </c>
       <c r="Q29" t="n">
         <v>254.1351585580663</v>
       </c>
       <c r="R29" t="n">
-        <v>45.67434526821394</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>429.5493197952226</v>
       </c>
       <c r="M30" t="n">
-        <v>559.9875480911628</v>
+        <v>111.5831022838302</v>
       </c>
       <c r="N30" t="n">
-        <v>139.9345114446951</v>
+        <v>588.3389572520275</v>
       </c>
       <c r="O30" t="n">
         <v>461.9442635637917</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.87734622612812</v>
+        <v>59.87734622612813</v>
       </c>
       <c r="K31" t="n">
         <v>163.8201090678977</v>
@@ -37005,10 +37005,10 @@
         <v>235.1675270421173</v>
       </c>
       <c r="P31" t="n">
-        <v>194.5852027230439</v>
+        <v>194.585202723044</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.20381259050808</v>
+        <v>84.20381259050809</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>116.5841349428984</v>
       </c>
       <c r="K32" t="n">
-        <v>424.2076753126202</v>
+        <v>424.2076753126199</v>
       </c>
       <c r="L32" t="n">
-        <v>548.8554334466024</v>
+        <v>496.6237557663861</v>
       </c>
       <c r="M32" t="n">
         <v>487.9476899176304</v>
       </c>
       <c r="N32" t="n">
-        <v>538.0352021531533</v>
+        <v>474.3575084273965</v>
       </c>
       <c r="O32" t="n">
-        <v>511.061019134127</v>
+        <v>511.0610191341268</v>
       </c>
       <c r="P32" t="n">
-        <v>420.6798778975443</v>
+        <v>420.679877897544</v>
       </c>
       <c r="Q32" t="n">
-        <v>151.1890753456246</v>
+        <v>267.098446751604</v>
       </c>
       <c r="R32" t="n">
-        <v>58.63763346175197</v>
+        <v>58.63763346175167</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,10 +37157,10 @@
         <v>559.9875480911629</v>
       </c>
       <c r="N33" t="n">
-        <v>139.9345114446946</v>
+        <v>588.3389572520275</v>
       </c>
       <c r="O33" t="n">
-        <v>461.9442635637917</v>
+        <v>13.53981775645861</v>
       </c>
       <c r="P33" t="n">
         <v>357.9438071477089</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.84063441966613</v>
+        <v>72.84063441966583</v>
       </c>
       <c r="K34" t="n">
-        <v>176.7833972614357</v>
+        <v>176.7833972614354</v>
       </c>
       <c r="L34" t="n">
-        <v>168.4828365282776</v>
+        <v>136.0849551075025</v>
       </c>
       <c r="M34" t="n">
         <v>155.5203299487231</v>
       </c>
       <c r="N34" t="n">
-        <v>155.0895328643992</v>
+        <v>270.9989042703787</v>
       </c>
       <c r="O34" t="n">
-        <v>248.1308152356553</v>
+        <v>164.6193252504571</v>
       </c>
       <c r="P34" t="n">
-        <v>207.548490916582</v>
+        <v>207.5484909165817</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.1671007840461</v>
+        <v>97.1671007840458</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>276.4548232490687</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>429.5493197952226</v>
       </c>
       <c r="M36" t="n">
         <v>559.9875480911629</v>
       </c>
       <c r="N36" t="n">
-        <v>588.3389572520275</v>
+        <v>139.9345114446944</v>
       </c>
       <c r="O36" t="n">
         <v>461.9442635637917</v>
@@ -37403,7 +37403,7 @@
         <v>357.9438071477089</v>
       </c>
       <c r="Q36" t="n">
-        <v>175.8031611314547</v>
+        <v>194.6582871435648</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.5841349428976</v>
+        <v>116.5841349428984</v>
       </c>
       <c r="K38" t="n">
         <v>308.2983039066404</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>86.98449674084058</v>
       </c>
       <c r="K39" t="n">
-        <v>109.6931613261412</v>
+        <v>276.4548232490687</v>
       </c>
       <c r="L39" t="n">
         <v>429.5493197952226</v>
@@ -37631,16 +37631,16 @@
         <v>559.9875480911629</v>
       </c>
       <c r="N39" t="n">
-        <v>588.3389572520275</v>
+        <v>497.8783185924032</v>
       </c>
       <c r="O39" t="n">
         <v>461.9442635637917</v>
       </c>
       <c r="P39" t="n">
-        <v>357.9438071477089</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>194.6582871435648</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>86.98449674084058</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>276.4548232490687</v>
       </c>
       <c r="L42" t="n">
         <v>429.5493197952226</v>
@@ -37868,13 +37868,13 @@
         <v>559.9875480911629</v>
       </c>
       <c r="N42" t="n">
-        <v>416.3893346937633</v>
+        <v>588.3389572520275</v>
       </c>
       <c r="O42" t="n">
-        <v>461.9442635637917</v>
+        <v>371.4836249041674</v>
       </c>
       <c r="P42" t="n">
-        <v>357.9438071477089</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>194.6582871435648</v>
@@ -38026,7 +38026,7 @@
         <v>487.9476899176304</v>
       </c>
       <c r="N44" t="n">
-        <v>474.3575084273965</v>
+        <v>474.3575084273964</v>
       </c>
       <c r="O44" t="n">
         <v>395.1516477281473</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>86.98449674084058</v>
       </c>
       <c r="K45" t="n">
         <v>276.4548232490687</v>
@@ -38102,19 +38102,19 @@
         <v>429.5493197952226</v>
       </c>
       <c r="M45" t="n">
-        <v>559.9875480911629</v>
+        <v>111.5831022838301</v>
       </c>
       <c r="N45" t="n">
         <v>588.3389572520275</v>
       </c>
       <c r="O45" t="n">
-        <v>295.182601640864</v>
+        <v>461.9442635637917</v>
       </c>
       <c r="P45" t="n">
         <v>357.9438071477089</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>194.6582871435648</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
